--- a/pythonProject/src_Python/Refelction_Coefficient.xlsx
+++ b/pythonProject/src_Python/Refelction_Coefficient.xlsx
@@ -481,32 +481,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.3133050641357852+1.115078460316653j)</t>
+          <t>(0.31210573654675045+1.1149527732388602j)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0.313607626186617+1.1143733278465398j)</t>
+          <t>(0.3114842077033475+1.1150496735586817j)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.31269377862417264+1.1143156127101699j)</t>
+          <t>(0.3103867990004079+1.115860337784893j)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.041217129834471934+0.03823971972112016j)</t>
+          <t>(0.3187574278303237+1.115547741504793j)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0.31899884495168435+1.1146392732656343j)</t>
+          <t>(0.07243908162292113+1.1467258818791355j)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(0.3193541566071547+1.1152956503787335j)</t>
+          <t>(0.0721216217142199+1.1462407003933963j)</t>
         </is>
       </c>
     </row>
@@ -521,32 +521,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(0.9697816364524138+0.6933287221298395j)</t>
+          <t>(0.9704149476149279+0.6930475357289121j)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0.9709906124398339+0.6931915589914343j)</t>
+          <t>(0.9710186439992516+0.6925411129912383j)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.9704964097160151+0.6931606419342312j)</t>
+          <t>(0.9715568560486798+0.6923845028647985j)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.037823894340113455+0.05857661378932249j)</t>
+          <t>(0.9778273174300337+0.7017404115778052j)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(0.976155911006221+0.7010917884868555j)</t>
+          <t>(1.048062593691512+0.5775496115329523j)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(0.975999447019151+0.7013104256433081j)</t>
+          <t>(1.048538442725477+0.5777875115150976j)</t>
         </is>
       </c>
     </row>
@@ -561,32 +561,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(1.1741253608033866+0.14139904461673136j)</t>
+          <t>(1.1750771091371963+0.14169651659058435j)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(1.1735746168894694+0.14163321258666356j)</t>
+          <t>(1.1755380472818069+0.14056474657444828j)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(1.1738238962761693+0.14200831166758682j)</t>
+          <t>(1.175480286990734+0.14060852334841706j)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.04886283136379259+0.04032003461391323j)</t>
+          <t>(1.1826395122217854+0.14620501894580878j)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(1.1802281976704985+0.14589050119023095j)</t>
+          <t>(1.1825584591476257-0.025629242728442216j)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(1.180497511864426+0.14582371516371548j)</t>
+          <t>(1.1822576672171965-0.02528870996193254j)</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(1.0861806099220694-0.4419151622482209j)</t>
+          <t>(1.0875980022263005-0.44323538687765995j)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(1.0860481110899667-0.442522719431535j)</t>
+          <t>(1.0870588025440515-0.444467487720972j)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(1.08548413678735-0.4422521559348724j)</t>
+          <t>(1.0867458342144318-0.44498047042080585j)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.05312019248578994+0.019556122271975604j)</t>
+          <t>(1.0936021672444445-0.44144124718126937j)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(1.0900182112952104-0.43950914858265155j)</t>
+          <t>(0.9933079918270816-0.6138964176647834j)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(1.0903797963862063-0.4394041320340264j)</t>
+          <t>(0.9934436687312688-0.6136451700156573j)</t>
         </is>
       </c>
     </row>
@@ -641,32 +641,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.7264932378718829-0.9094141785855094j)</t>
+          <t>(0.7272342303158467-0.9114445246324844j)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0.7271247361222505-0.9095255739559557j)</t>
+          <t>(0.7265203696084653-0.9117999744173351j)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(0.7272137258729082-0.9097612728299164j)</t>
+          <t>(0.726194581596323-0.9118704755748324j)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0.05007087198515551+9.554296013940697e-05j)</t>
+          <t>(0.733266133984797-0.9089959289622541j)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(0.7302403117091086-0.9051528228880318j)</t>
+          <t>(0.5367661602594527-1.022251604704887j)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(0.7301390163931947-0.9049975245458459j)</t>
+          <t>(0.5371499917411005-1.0219764304590941j)</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.18467691705463574-1.1390192590052355j)</t>
+          <t>(0.184429275651383-1.1407783780948673j)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0.18494113944401033-1.1384716062972837j)</t>
+          <t>(0.18255845018209638-1.141009683300158j)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.18442794145977606-1.139048448458084j)</t>
+          <t>(0.18257826992271023-1.1416113980331404j)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.04039731448672364-0.01658256594105956j)</t>
+          <t>(0.19177924799905866-1.1405091400085348j)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(0.19104266307394355-1.1361746938385786j)</t>
+          <t>(-0.0622612929525497-1.140945685894943j)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(0.19135765101859958-1.1362428547035683j)</t>
+          <t>(-0.06164067084342211-1.141593489017623j)</t>
         </is>
       </c>
     </row>
@@ -713,32 +713,32 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(-0.3985429148951694-1.072475136508857j)</t>
+          <t>(-0.39907821863060233-1.0725893335799985j)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(-0.3982265223290445-1.072213434388255j)</t>
+          <t>(-0.4003254380779121-1.0719780985853453j)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(-0.39858211459502096-1.0724175967529057j)</t>
+          <t>(-0.4013966549338545-1.0724976205737409j)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.025626100159113402-0.026447439655352938j)</t>
+          <t>(-0.3919506848719583-1.0749752656462064j)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(-0.3914413520146705-1.0752166006818762j)</t>
+          <t>(-0.6339405874749225-0.9373837143757225j)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(-0.3915585379389506-1.0752524068334641j)</t>
+          <t>(-0.6338322945250725-0.9376260151543904j)</t>
         </is>
       </c>
     </row>
@@ -749,32 +749,32 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(-0.8662580192286702-0.7279570322953802j)</t>
+          <t>(-0.8657128647466958-0.7267484704859991j)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(-0.8663343338092722-0.7281825629000096j)</t>
+          <t>(-0.8669005630857521-0.7254109486087127j)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(-0.8660911291314926-0.7281920479169655j)</t>
+          <t>(-0.8683203098717442-0.7267084540630362j)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0.0049819729644521304-0.031341206327190604j)</t>
+          <t>(-0.8602375690073084-0.7324599570187065j)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(-0.8604857689799106-0.7334484428375501j)</t>
+          <t>(-1.0154560319087742-0.4745492257675079j)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(-0.8603554591101372-0.733190227373278j)</t>
+          <t>(-1.0166168547167707-0.4755335135345231j)</t>
         </is>
       </c>
     </row>
@@ -785,32 +785,32 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(-1.1027508108284596-0.20996835342429854j)</t>
+          <t>(-1.1006475132236135-0.2094058471075274j)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-1.1034641754730175-0.2107268657000354j)</t>
+          <t>(-1.1009441319215567-0.20789235372298054j)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(-1.1030056124545602-0.2104623781706168j)</t>
+          <t>(-1.103123421686863-0.2077548865614169j)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(-0.012455687399042079-0.020892853916112744j)</t>
+          <t>(-1.1001286609773984-0.2154099790747162j)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(-1.101116391467635-0.2164596709989606j)</t>
+          <t>(-1.1104528017590944+0.1087538641595049j)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(-1.1010185209540433-0.21626955199591485j)</t>
+          <t>(-1.110977618360617+0.10853091515334651j)</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(-1.0611065294465445+0.3524946517659878j)</t>
+          <t>(-1.0588352545605433+0.35111473476745403j)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(-1.0609479121678111+0.35204250266067827j)</t>
+          <t>(-1.0583595617536445+0.3529133340378722j)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(-1.061270259365475+0.35216118984647277j)</t>
+          <t>(-1.059812121779177+0.3537875090586558j)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(-0.0195373116994001-0.004083004153370951j)</t>
+          <t>(-1.0604182088272076+0.34745283807969224j)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(-1.0616206955382925+0.34687448366156065j)</t>
+          <t>(-0.9016467548061691+0.6577192161232639j)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(-1.0614813260998197+0.3472390353553964j)</t>
+          <t>(-0.9023245351173045+0.6579632503068576j)</t>
         </is>
       </c>
     </row>
@@ -857,32 +857,32 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(-0.7583871562205519+0.823510254015495j)</t>
+          <t>(-0.75583063584594+0.8227582905646664j)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(-0.7580268976055495+0.823872154035524j)</t>
+          <t>(-0.7544269118121634+0.8235402669962099j)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(-0.7586012037193681+0.8243345416531086j)</t>
+          <t>(-0.7552203105227602+0.8253712345978662j)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(-0.017444080595638848+0.01502690236633976j)</t>
+          <t>(-0.7582263196981716+0.8204954285170699j)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(-0.7580123199671457+0.8189076848549827j)</t>
+          <t>(-0.44794917222494596+1.029598525103855j)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(-0.7577147384599512+0.8199517219304949j)</t>
+          <t>(-0.44803109861957974+1.0302460782415879j)</t>
         </is>
       </c>
     </row>
@@ -893,32 +893,32 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(-0.2641656911382827+1.0935922854719535j)</t>
+          <t>(-0.2635185928662914+1.0925010234975983j)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(-0.26489925732846026+1.0942254637811848j)</t>
+          <t>(-0.26163018044350383+1.0923175605358402j)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(-0.26449353295115335+1.0934838715707846j)</t>
+          <t>(-0.26084288860976385+1.0934755960702305j)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(-0.004546101031973359+0.029746036995087384j)</t>
+          <t>(-0.26545404615824925+1.0901577194661543j)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(-0.26610022285027307+1.0883702947781904j)</t>
+          <t>(0.13459155202524925+1.123270692385751j)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(-0.26643809945561214+1.0885093994551431j)</t>
+          <t>(0.1337683523589992+1.1240065090311926j)</t>
         </is>
       </c>
     </row>
@@ -929,32 +929,32 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(0.3025722981680004+1.0915665174533529j)</t>
+          <t>(0.30400777292256276+1.0921364281537622j)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0.3023589705862281+1.0921408110880264j)</t>
+          <t>(0.3054617000194731+1.0910066456849739j)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(0.30237152380467247+1.0917605145969758j)</t>
+          <t>(0.30657485653403177+1.0909751516758317j)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0.013812012719442506+0.033426244895707384j)</t>
+          <t>(0.29866811554140066+1.0899390277272563j)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(0.29662119046111723+1.0873921646303673j)</t>
+          <t>(0.6894372483476467+0.9110297684482186j)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(0.2967219263433891+1.087686934463161j)</t>
+          <t>(0.6896353904397267+0.9120883322270853j)</t>
         </is>
       </c>
     </row>
@@ -965,32 +965,32 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(0.8011565835159578+0.8110572222289705j)</t>
+          <t>(0.8032284076427376+0.810930406828717j)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0.8013447148258047+0.8111374835105143j)</t>
+          <t>(0.8050954055075837+0.809118488394954j)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(0.8009528968344368+0.8106638817251018j)</t>
+          <t>(0.8057282699416554+0.8095414617889951j)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0.032664550489580356+0.02810104386665194j)</t>
+          <t>(0.7953181050905999+0.8158175135501716j)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(0.791321536141763+0.8132591218009794j)</t>
+          <t>(1.0648864297426281+0.444172415875246j)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(0.7910704594364472+0.8133977181617522j)</t>
+          <t>(1.0651945438758974+0.4450740250332112j)</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(1.0962706212846063+0.31958897199307756j)</t>
+          <t>(1.0939652364236816+0.3175128684512699j)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(1.0972650628316298+0.31949914327424317j)</t>
+          <t>(1.0949843279706823+0.3157109992181149j)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(1.0963925730596196+0.3196540468127112j)</t>
+          <t>(1.0964575966985777+0.3149734874949606j)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0.05733681402387424+0.016163415033425936j)</t>
+          <t>(1.0881057786931008+0.3302374992166028j)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1.088068337837253+0.33050111658048764j)</t>
+          <t>(1.1394076902359067-0.15228691811119416j)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(1.088137889513158+0.33078868934045413j)</t>
+          <t>(1.1398005207550923-0.15147357203888775j)</t>
         </is>
       </c>
     </row>
@@ -1037,32 +1037,32 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(1.11412716487752-0.250528230757385j)</t>
+          <t>(1.1106731095765563-0.25106990413921476j)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(1.1139204944052394-0.250181736105606j)</t>
+          <t>(1.1124095180922997-0.25363864433282474j)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(1.1137855342483338-0.24963524231890413j)</t>
+          <t>(1.112414954225025-0.25452754466685423j)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0.06424149819885216-0.009048808401595547j)</t>
+          <t>(1.1198322945913342-0.233540782408973j)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(1.116988216654784-0.23228987454068473j)</t>
+          <t>(0.9174926910934513-0.7041844821434387j)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(1.1177502062641955-0.23253813110217814j)</t>
+          <t>(0.9180363885770737-0.7043934787646252j)</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(0.8567251038816529-0.751747079339553j)</t>
+          <t>(0.8543376762825456-0.7512777162844175j)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0.8554290686033905-0.7506310458922876j)</t>
+          <t>(0.8539900698514908-0.7547219854546955j)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(0.8568199826617285-0.7515531828674024j)</t>
+          <t>(0.8540746677328254-0.7561256763111945j)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0.06177795754561962-0.0445994898568881j)</t>
+          <t>(0.8774951859575669-0.740880525585718j)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(0.8769265544293792-0.7392294971481709j)</t>
+          <t>(0.44917328006256785-1.0701964303410822j)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(0.8763975419290051-0.7396534780187713j)</t>
+          <t>(0.45001463437241696-1.0698351146421947j)</t>
         </is>
       </c>
     </row>
@@ -1109,32 +1109,32 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(0.39825179047973985-1.0664055387307279j)</t>
+          <t>(0.3965933306506294-1.0644299839103621j)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0.39773288787805133-1.064940874052569j)</t>
+          <t>(0.39480277378749407-1.066578559187204j)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(0.3989643168220728-1.067035663431926j)</t>
+          <t>(0.39438649119234803-1.0681565548278014j)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0.04403441224566704-0.06144883605167905j)</t>
+          <t>(0.4261713260219298-1.069950644665157j)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(0.425753963130977-1.0692897664593906j)</t>
+          <t>(-0.1371197350522171-1.1550777067949733j)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(0.4251763176970968-1.0692146717264162j)</t>
+          <t>(-0.13617850859127217-1.1552646335899184j)</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(-0.1475948509973118-1.1303310091274554j)</t>
+          <t>(-0.14826140519929998-1.1272972804187595j)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(-0.14813196423720687-1.1280462263194422j)</t>
+          <t>(-0.15129559285818558-1.128392862773354j)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(-0.14807917910953544-1.129882348582932j)</t>
+          <t>(-0.15269284882574038-1.1289436889989162j)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0.004149960346345605-0.08322813857877974j)</t>
+          <t>(-0.1252103041676873-1.1472045682618863j)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(-0.12566114136575154-1.147601718091096j)</t>
+          <t>(-0.6903423657487375-0.9401230347353422j)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(-0.12500231843436235-1.146902228473236j)</t>
+          <t>(-0.690066121629076-0.9403332608111424j)</t>
         </is>
       </c>
     </row>
@@ -1181,32 +1181,32 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(-0.6637894045447744-0.9352519018906604j)</t>
+          <t>(-0.6628314045822161-0.9324716252352341j)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(-0.6631129761028642-0.9338485282443006j)</t>
+          <t>(-0.6661241958441388-0.9320183716141204j)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(-0.6644157272687544-0.9353481723556053j)</t>
+          <t>(-0.6676930591988081-0.9321201050565894j)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(-0.019474333585254865-0.07680250683923526j)</t>
+          <t>(-0.6524005492697045-0.9602749126437604j)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(-0.6523873197905405-0.9609390221697864j)</t>
+          <t>(-1.0739442898479457-0.47602705500941916j)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(-0.6524666997240139-0.9608439162163231j)</t>
+          <t>(-1.073857880755881-0.47609337604613056j)</t>
         </is>
       </c>
     </row>
@@ -1217,32 +1217,32 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(-1.04047108080381-0.5192007423699174j)</t>
+          <t>(-1.0382278346244265-0.5177912376119851j)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(-1.039554329772266-0.518993196937639j)</t>
+          <t>(-1.039533297533033-0.5144228794273089j)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(-1.0405232643653033-0.519425818871366j)</t>
+          <t>(-1.0408216148968839-0.513249406674653j)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(-0.053380985134500535-0.05281859631404036j)</t>
+          <t>(-1.0344048482823172-0.5451974394060346j)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(-1.0356133447333196-0.5451199298087204j)</t>
+          <t>(-1.171747477467467+0.12663474253255802j)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(-1.0361215710074596-0.54516835473238j)</t>
+          <t>(-1.1718676908029737+0.12635061745996362j)</t>
         </is>
       </c>
     </row>
@@ -1253,32 +1253,32 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(-1.1826486147951762+0.046479548281287524j)</t>
+          <t>(-1.1825995147590982+0.0475318743769017j)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(-1.1826630613393168+0.0469263245190185j)</t>
+          <t>(-1.182862764715649+0.052019983098372545j)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(-1.182165088438819+0.046332494988772364j)</t>
+          <t>(-1.1827279339587675+0.05286718678689213j)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(-0.06401788353754852-0.027265576107118557j)</t>
+          <t>(-1.189396456993111+0.0188097074067606j)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(-1.1857008342630246+0.01877280374560051j)</t>
+          <t>(-0.9498353812990126+0.7202021738446666j)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(-1.186372428599669+0.018792696220945582j)</t>
+          <t>(-0.9495286083246784+0.7194931582012967j)</t>
         </is>
       </c>
     </row>
@@ -1289,32 +1289,32 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(-1.0235432113428433+0.6341816299272833j)</t>
+          <t>(-1.0225117218540125+0.635422293138006j)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(-1.0233556931647314+0.6342472751223138j)</t>
+          <t>(-1.0206137388969465+0.6397601451767049j)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(-1.023655226702789+0.63435222016123j)</t>
+          <t>(-1.0201027190376233+0.6403827927859946j)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(-0.06809346600537552-0.0055551777011117335j)</t>
+          <t>(-1.0423113462581521+0.6068239078811555j)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(-1.0403267328765908+0.6059664250540883j)</t>
+          <t>(-0.43225211966383364+1.1140742609735441j)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(-1.0404618356262958+0.6065246814215901j)</t>
+          <t>(-0.4323242030275191+1.113291148402169j)</t>
         </is>
       </c>
     </row>
@@ -1325,32 +1325,32 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(-0.5704783209657335+1.0717166560751j)</t>
+          <t>(-0.5688513786759671+1.0715281711495548j)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(-0.5707428305162904+1.0718260813932148j)</t>
+          <t>(-0.5649303205378717+1.0740237450083792j)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(-0.5709958021003251+1.0718761091099436j)</t>
+          <t>(-0.5647112190117513+1.0744585469815873j)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(-0.05906441182249985+0.016292108540785076j)</t>
+          <t>(-0.604312651580692+1.0516393656779517j)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(-0.6036881992388328+1.050777571020598j)</t>
+          <t>(0.22016136839481762+1.164092876900869j)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(-0.6036307510506832+1.050393751902078j)</t>
+          <t>(0.2192129816014718+1.1626594179755139j)</t>
         </is>
       </c>
     </row>
@@ -1361,32 +1361,32 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(0.049868186484530244+1.2069813691405313j)</t>
+          <t>(0.051235334003174524+1.2059776275960763j)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0.04958941017051578+1.207454724477461j)</t>
+          <t>(0.056276310821054124+1.2057105465206066j)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(0.04960043285125996+1.207463333975375j)</t>
+          <t>(0.057062909576397064+1.207041319032795j)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(-0.04724715934409785+0.03302936594805635j)</t>
+          <t>(0.006080265874655551+1.2062239043704677j)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(0.005608678239934624+1.205712514770981j)</t>
+          <t>(0.7867433974090863+0.8565615626607019j)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(0.006560899695491202+1.204873739118467j)</t>
+          <t>(0.7855323154519772+0.8558936011721854j)</t>
         </is>
       </c>
     </row>
@@ -1397,32 +1397,32 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(0.6406989742984522+1.0011128568549337j)</t>
+          <t>(0.6416020665951326+0.9992066070195611j)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0.6410179770651172+1.0012466531051512j)</t>
+          <t>(0.6467287299070269+0.9961562842619971j)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(0.640866746373653+1.0012452711253503j)</t>
+          <t>(0.64661503977015+0.9972070951390645j)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(-0.02942402268239208+0.04214891874046201j)</t>
+          <t>(0.6022525216674992+1.023524596479488j)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(0.6026239810889434+1.02231970264983j)</t>
+          <t>(1.0961418635925289+0.3104150339409238j)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(0.6026055479781953+1.0226853608012656j)</t>
+          <t>(1.0957107981900667+0.31040895673608426j)</t>
         </is>
       </c>
     </row>
@@ -1433,32 +1433,32 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(1.032578679090419+0.531263340684128j)</t>
+          <t>(1.030863510182288+0.5287572465462376j)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(1.0331157856422408+0.5317514543681988j)</t>
+          <t>(1.0343910943959165+0.5248797222181668j)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(1.0325224060852431+0.5311561112436938j)</t>
+          <t>(1.0349446322382077+0.5247436472463178j)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(-0.014256287390842318+0.03192782348766877j)</t>
+          <t>(1.0130687784854522+0.5700520649295214j)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(1.0145243509560027+0.5694449172637202j)</t>
+          <t>(1.0826398301809392-0.2977465212193246j)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(1.0152696534061605+0.5698189659469624j)</t>
+          <t>(1.081977069736013-0.2982112000733616j)</t>
         </is>
       </c>
     </row>
@@ -1469,32 +1469,32 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(1.1424714879715854-0.04626385481629049j)</t>
+          <t>(1.1395439915620933-0.0473584705194882j)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(1.1422920791700562-0.04693055727682639j)</t>
+          <t>(1.1399115293068445-0.05363575242475419j)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(1.1427388567765846-0.04597822693081805j)</t>
+          <t>(1.1405325728940876-0.053554085263846495j)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(-0.0009489822890194976+0.03114905399642812j)</t>
+          <t>(1.1437518358340115-0.008079749411245694j)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(1.1433146140631238-0.007937675866947777j)</t>
+          <t>(0.7694452213713016-0.8072638704763235j)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(1.1438896812914474-0.008883596730016688j)</t>
+          <t>(0.7696873859027786-0.8074190734551632j)</t>
         </is>
       </c>
     </row>
@@ -1505,32 +1505,32 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(0.9625310383755596-0.5936688143752212j)</t>
+          <t>(0.9622428491013333-0.5945358396608392j)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0.9635323090149785-0.5946406852086932j)</t>
+          <t>(0.9574546262606997-0.5992016363405787j)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(0.9628217272392287-0.5939551742655962j)</t>
+          <t>(0.9582962396190168-0.6004517039365327j)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0.0018716649840215722+0.02292298881714884j)</t>
+          <t>(0.9804138762148553-0.5666539736335002j)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(0.9790153192349504-0.5662062382963498j)</t>
+          <t>(0.2427587335584614-1.0927847961424735j)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(0.9780922006862482-0.5660448425842765j)</t>
+          <t>(0.24286470942916438-1.0925800813262863j)</t>
         </is>
       </c>
     </row>
@@ -1541,32 +1541,32 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(0.544105700697482-0.9919143810234732j)</t>
+          <t>(0.5432254247652515-0.9940930324088687j)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0.5441708218492551-0.9926354927529081j)</t>
+          <t>(0.5383186902703468-0.9964285001277744j)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(0.5441109240018255-0.9925890221330368j)</t>
+          <t>(0.5377426099299633-0.9971244478483218j)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(-0.001145530775626393+0.018471760035012608j)</t>
+          <t>(0.5698896833180289-0.9771378797306229j)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(0.5687917896215123-0.975337295763075j)</t>
+          <t>(-0.3590375891471336-1.0708865848358533j)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(0.5681721129135502-0.9754360717089802j)</t>
+          <t>(-0.3595705439023297-1.0712812161594918j)</t>
         </is>
       </c>
     </row>
@@ -1577,32 +1577,32 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(-0.01909344778791868-1.1394661616228288j)</t>
+          <t>(-0.02114657144079763-1.14207061628732j)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(-0.018682936207238144-1.1399107605904897j)</t>
+          <t>(-0.02688370944069522-1.1417603083305654j)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>(-0.019238669487376917-1.1399085263735609j)</t>
+          <t>(-0.027339019460730068-1.1421830921469642j)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(-0.0007696106172259973+0.013596934730567129j)</t>
+          <t>(0.010971155348608822-1.1344052176178754j)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(0.010802112668879696-1.1328200962491153j)</t>
+          <t>(-0.8699605064966319-0.7349236361554492j)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(0.010571241963589172-1.1333005806101812j)</t>
+          <t>(-0.8701183972945177-0.7355509586555721j)</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(-0.5921068045883593-0.981299521600797j)</t>
+          <t>(-0.5932727354366927-0.9823245610304189j)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(-0.5915225108867113-0.980841851201438j)</t>
+          <t>(-0.5989141605278826-0.9788190436506303j)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>(-0.5916663564245023-0.981009355730022j)</t>
+          <t>(-0.5995239876420919-0.9784792674187944j)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(-0.006248305039183879+0.015508251905012222j)</t>
+          <t>(-0.5616168206522216-0.9890062555830942j)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(-0.5622527941829434-0.9880345389894609j)</t>
+          <t>(-1.1299967455934143-0.17168608034098443j)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(-0.5621591204846597-0.9878357800401243j)</t>
+          <t>(-1.129367322865087-0.17246447722610403j)</t>
         </is>
       </c>
     </row>
@@ -1649,32 +1649,32 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(-1.0085136967948216-0.5432900360523228j)</t>
+          <t>(-1.010119029428214-0.5432374324565772j)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(-1.008590427912923-0.5425826299907658j)</t>
+          <t>(-1.013083361632769-0.5365784315770632j)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>(-1.008959559255659-0.5438860144944175j)</t>
+          <t>(-1.0143924349114222-0.5365237183033524j)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(-0.0082898687366588+0.022199608366800388j)</t>
+          <t>(-0.9886020534453877-0.567632909544943j)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(-0.9879560622424113-0.5666202117821971j)</t>
+          <t>(-1.0526474295090786+0.43607777044902096j)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(-0.9882571298318581-0.5674252684295711j)</t>
+          <t>(-1.0532176800648179+0.4354294925117855j)</t>
         </is>
       </c>
     </row>
@@ -1685,32 +1685,32 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(-1.1319675937408968+0.03957784190609521j)</t>
+          <t>(-1.1293517167845852+0.041754346019982444j)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(-1.1321604571352075+0.04050046521373093j)</t>
+          <t>(-1.1294196072534126+0.0477974644763362j)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>(-1.1315884729636512+0.04049731955577814j)</t>
+          <t>(-1.1297650274862976+0.04820308360757987j)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(-0.007732876632604319+0.028370113715330898j)</t>
+          <t>(-1.1268746287258753+0.009841621857734238j)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(-1.1257613050773454+0.00963771407704984j)</t>
+          <t>(-0.6673367516101559+0.8956155033889636j)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(-1.1256227540423578+0.009916906491482002j)</t>
+          <t>(-0.6673284867815854+0.8945934882791234j)</t>
         </is>
       </c>
     </row>
@@ -1721,32 +1721,32 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(-0.9444546625994795+0.5860096830213173j)</t>
+          <t>(-0.9426667730795318+0.5863938342223569j)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>(-0.9445362255358496+0.5851950959215331j)</t>
+          <t>(-0.9388870759244821+0.5909315974514108j)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>(-0.9447485018780756+0.5857101756492132j)</t>
+          <t>(-0.9383488107529998+0.5927291182004636j)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(-0.0002503667492646768+0.03757694838615369j)</t>
+          <t>(-0.9617583450866345+0.5639044243333851j)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(-0.9594274384734771+0.5628690206783966j)</t>
+          <t>(-0.1339249154827586+1.093739779305437j)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(-0.9599146926056633+0.562784581101144j)</t>
+          <t>(-0.1343042505761306+1.092588312655081j)</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(-0.5305157403050721+0.9476748914887086j)</t>
+          <t>(-0.5290497366495092+0.9488918424863217j)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>(-0.5305141642896605+0.9480703245345865j)</t>
+          <t>(-0.5230958273286904+0.9513592427897838j)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>(-0.5306537450314741+0.947875369230064j)</t>
+          <t>(-0.5229910407841193+0.95162940668096j)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(0.011230603909812183+0.04445026207465003j)</t>
+          <t>(-0.5570209617385881+0.9457359868375256j)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(-0.5559195731895454+0.9435754411869854j)</t>
+          <t>(0.4044268786118881+1.011440429717889j)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(-0.5559520934467914+0.9436027708617621j)</t>
+          <t>(0.4033300290598272+1.0098359293792099j)</t>
         </is>
       </c>
     </row>
@@ -1793,32 +1793,32 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(-0.02253044607353799+1.0663527960058716j)</t>
+          <t>(-0.020886979865949028+1.0665249593491462j)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>(-0.02309184493052964+1.0664714631622052j)</t>
+          <t>(-0.01502005807536454+1.066250621395078j)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>(-0.023148738527828193+1.0664281892415013j)</t>
+          <t>(-0.014439197139137072+1.066826504236805j)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(0.023642103102786954+0.04662654057686276j)</t>
+          <t>(-0.04323585194358034+1.079271211014539j)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(-0.04400849312979202+1.0774897972916708j)</t>
+          <t>(0.8278682015044131+0.6971075616412553j)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(-0.0437221151232455+1.0775106799651537j)</t>
+          <t>(0.8258095471885034+0.6959069255339252j)</t>
         </is>
       </c>
     </row>
@@ -1829,32 +1829,32 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(0.46320935516778566+0.948824330996517j)</t>
+          <t>(0.4645581832373692+0.9491742880942707j)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(0.463187449719882+0.9492011306805549j)</t>
+          <t>(0.469300157039252+0.9462825895536466j)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>(0.46329522911102994+0.9487970437239255j)</t>
+          <t>(0.471042261440349+0.9456214047924206j)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(0.04414218302125311+0.04019834074725924j)</t>
+          <t>(0.4512926065497065+0.9678845430487792j)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(0.450845553247277+0.9674228193041134j)</t>
+          <t>(1.0617054105146078+0.22988843450114407j)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(0.4509510704285734+0.9672167142234628j)</t>
+          <t>(1.0596422113523842+0.22963741874277574j)</t>
         </is>
       </c>
     </row>
@@ -1865,32 +1865,32 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(0.8437559105410853+0.6374919587047138j)</t>
+          <t>(0.8445813112110986+0.6370391737482696j)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(0.8437420551852235+0.6378622095504055j)</t>
+          <t>(0.8475777487993452+0.632063802687403j)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>(0.8439213229012088+0.6382018965339754j)</t>
+          <t>(0.848495826225036+0.6299882998266505j)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(0.06040698535487345+0.02841498213472301j)</t>
+          <t>(0.8397895698786574+0.6585246703505571j)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(0.8386646713736287+0.6586497541421187j)</t>
+          <t>(1.0594960429212414-0.30123153467148905j)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(0.8384825473838395+0.6587495584056056j)</t>
+          <t>(1.0588352507447791-0.30107610132680157j)</t>
         </is>
       </c>
     </row>
@@ -1901,32 +1901,32 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(1.0569262778431547+0.1885903099248836j)</t>
+          <t>(1.054928751168481+0.18673732483354002j)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(1.0558116460031728+0.18846318431716536j)</t>
+          <t>(1.0568032990676315+0.181609596548936j)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>(1.0574189511755885+0.18835894025962444j)</t>
+          <t>(1.057672197459469+0.18004894217635692j)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(0.07379580668515724+0.012295375812013598j)</t>
+          <t>(1.0536569000777019+0.21375190724726417j)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1.051045883947035+0.21485215897474721j)</t>
+          <t>(0.7983404689100094-0.7807672298352495j)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(1.0513304134188133+0.21471511392051634j)</t>
+          <t>(0.799323064211583-0.7805263947933085j)</t>
         </is>
       </c>
     </row>
@@ -1937,32 +1937,32 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(1.046827739697433-0.3243944919651555j)</t>
+          <t>(1.043842282623178-0.3247485265012707j)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(1.0462751782140978-0.32425275887868127j)</t>
+          <t>(1.0426528980568186-0.3302968674543779j)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(1.0469262752132906-0.32471620102297105j)</t>
+          <t>(1.0426417255998173-0.33293641552930764j)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(0.07945245337108993-0.014480162958177778j)</t>
+          <t>(1.05471021897012-0.2917801921015195j)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(1.0549530175703472-0.2906249339101314j)</t>
+          <t>(0.31846371835916787-1.0972193542989155j)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(1.0552352687269764-0.2905227193636429j)</t>
+          <t>(0.3195859187624079-1.0975865876685345j)</t>
         </is>
       </c>
     </row>
@@ -1973,32 +1973,32 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(0.7904114067119037-0.7920982509569439j)</t>
+          <t>(0.787633224031309-0.791384264557685j)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(0.7910790261791972-0.7933037121536338j)</t>
+          <t>(0.7844067687628328-0.7959603284130697j)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>(0.7909053087140131-0.7928520827208018j)</t>
+          <t>(0.7825872437407654-0.7988872428662047j)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(0.07420627915355502-0.04382244203529526j)</t>
+          <t>(0.8229176024450191-0.7631244068797958j)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(0.8228286600673486-0.7609290498649622j)</t>
+          <t>(-0.28349071127049713-1.1275306667919454j)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(0.8223876604193378-0.7612403372658206j)</t>
+          <t>(-0.28181767453243994-1.1287503283856561j)</t>
         </is>
       </c>
     </row>
@@ -2009,32 +2009,32 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(0.32576184751388115-1.0931183782822935j)</t>
+          <t>(0.32440340432964515-1.0926309084544146j)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(0.32620802916850933-1.0932745795923557j)</t>
+          <t>(0.31812996305361824-1.093107242835107j)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>(0.3260364927681737-1.0933185880018799j)</t>
+          <t>(0.3149912347398969-1.094732253946368j)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(0.056863238004353465-0.07060471406950071j)</t>
+          <t>(0.37791876721326156-1.0858127184393112j)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(0.37857458173915937-1.0824228571355092j)</t>
+          <t>(-0.8301687486458823-0.8279045442862158j)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(0.37843161895960375-1.0826075976999276j)</t>
+          <t>(-0.828979341193944-0.8297305678264743j)</t>
         </is>
       </c>
     </row>
@@ -2045,32 +2045,32 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(-0.2411022646957903-1.1298746668780455j)</t>
+          <t>(-0.24273657872454046-1.1299057360587632j)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(-0.24072803492083228-1.1295712843746375j)</t>
+          <t>(-0.24910312272162324-1.1284789520819627j)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>(-0.24108516019067705-1.1299617633922319j)</t>
+          <t>(-0.25318130329737026-1.1284807710240754j)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(0.030778010925279205-0.08927837282342678j)</t>
+          <t>(-0.19026060293230923-1.1567460839900345j)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(-0.18791909172589982-1.154061176634609j)</t>
+          <t>(-1.1360457913667747-0.27521004940375887j)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(-0.18757828500068555-1.1542229837068452j)</t>
+          <t>(-1.1365931189011675-0.2767984142141511j)</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(-0.7618220567894003-0.8814055825222868j)</t>
+          <t>(-0.7640709331111252-0.881027433694434j)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(-0.7615795698664042-0.8810831926250662j)</t>
+          <t>(-0.7682741949118789-0.8765819790302698j)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>(-0.7615293026960607-0.8812437379757649j)</t>
+          <t>(-0.7712410541970695-0.8749033610748029j)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>(-0.0031085041286784813-0.09658453968138267j)</t>
+          <t>(-0.7328795167800985-0.9316995033918584j)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(-0.7292576835821419-0.930415579991157j)</t>
+          <t>(-1.1033082325221324+0.35569631540344204j)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(-0.7288264606945021-0.9304158645750696j)</t>
+          <t>(-1.104032987438106+0.35466045136787594j)</t>
         </is>
       </c>
     </row>
@@ -2117,32 +2117,32 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(-1.099742221261607-0.4058073893740829j)</t>
+          <t>(-1.1016183633106267-0.40403581011282064j)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(-1.0998372454090206-0.406370190458785j)</t>
+          <t>(-1.1022279791506762-0.3985025479596161j)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>(-1.100045480906612-0.40707004229156546j)</t>
+          <t>(-1.1046112835406552-0.3946766632396754j)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>(-0.03816332020961963-0.09028890078609415j)</t>
+          <t>(-1.0971260481374652-0.45909318333698296j)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(-1.0950223204943594-0.46131470322711315j)</t>
+          <t>(-0.7469607590355924+0.873126708555284j)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(-1.0952892995075116-0.4613980437881797j)</t>
+          <t>(-0.747778552021673+0.8728137117145582j)</t>
         </is>
       </c>
     </row>
@@ -2153,32 +2153,32 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(-1.158646524500972+0.1847724660959036j)</t>
+          <t>(-1.156358630913729+0.18702192417000602j)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(-1.1579625823750181+0.18472682695511708j)</t>
+          <t>(-1.1551330999084437+0.19309865147488653j)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>(-1.1587747723270172+0.18431266363348195j)</t>
+          <t>(-1.1551785043064338+0.19753097900655234j)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>(-0.06786812701149914-0.06606869877165475j)</t>
+          <t>(-1.1757458753947183+0.13794959380729022j)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(-1.1751554259572559+0.13602964076705015j)</t>
+          <t>(-0.17656643521456075+1.121614644401849j)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(-1.17560501336799+0.13564652339414468j)</t>
+          <t>(-0.17795675277875658+1.1235826524457144j)</t>
         </is>
       </c>
     </row>
@@ -2189,32 +2189,32 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(-0.9196129691354736+0.7349205896119967j)</t>
+          <t>(-0.9157933046362615+0.7341490250428345j)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(-0.9186403282733463+0.7338452263168177j)</t>
+          <t>(-0.9117078376155574+0.7405438609148578j)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>(-0.9193594717455782+0.7340793782587292j)</t>
+          <t>(-0.9102243498144463+0.7438694372805348j)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>(-0.08662890632441073-0.03941894819190904j)</t>
+          <t>(-0.9486752925412469+0.6911232238730624j)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(-0.9506685172129241+0.6905270906249733j)</t>
+          <t>(0.43550756212995856+1.0347736847901086j)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(-0.9509203604218216+0.6911929689022192j)</t>
+          <t>(0.43480618395750886+1.0351902031074292j)</t>
         </is>
       </c>
     </row>
@@ -2225,32 +2225,32 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(-0.4296375989002769+1.0950496279453357j)</t>
+          <t>(-0.4260979912401672+1.0920062342673669j)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(-0.43014241229776895+1.0949083155955175j)</t>
+          <t>(-0.41912392849951224+1.094754373811869j)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>(-0.4299112021160382+1.0948222029271746j)</t>
+          <t>(-0.4154786186164862+1.0979783206124778j)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(-0.08979676683406222-0.004428368476975706j)</t>
+          <t>(-0.47972922266559054+1.0585533425546738j)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(-0.4824046014633649+1.0564760133950624j)</t>
+          <t>(0.9037230257880391+0.6416816442772647j)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(-0.4818127791507116+1.0572087717592926j)</t>
+          <t>(0.903106153099006+0.6420971645788094j)</t>
         </is>
       </c>
     </row>
@@ -2261,32 +2261,32 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(0.18015418831450508+1.1511666783221048j)</t>
+          <t>(0.18305389500621516+1.1502167725788361j)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>(0.18049716241659303+1.150824363922175j)</t>
+          <t>(0.19043670569780852+1.1471046713578317j)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>(0.18057382828280952+1.1513114785702427j)</t>
+          <t>(0.19398833355105577+1.1477462544218862j)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>(-0.08064276084804149+0.02725607165718525j)</t>
+          <t>(0.10526001398466638+1.1425126967557875j)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(0.10263037585130223+1.1419289799569832j)</t>
+          <t>(1.093420909355371+0.06654806707738703j)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(0.10254073040255741+1.1422873045695232j)</t>
+          <t>(1.0944353340946533+0.06741743359718728j)</t>
         </is>
       </c>
     </row>
@@ -2297,32 +2297,32 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(0.7260509278026087+0.88578669573155j)</t>
+          <t>(0.7267210793876228+0.8831221417181546j)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(0.7261781853958462+0.885832191043667j)</t>
+          <t>(0.732002577336755+0.8770529862711133j)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>(0.7262058547219147+0.8857233636281516j)</t>
+          <t>(0.735519122544081+0.8752130468871122j)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>(-0.06400703927375379+0.05196211538777102j)</t>
+          <t>(0.6490994145421201+0.9253069248454946j)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(0.646854159827244+0.9258809305870811j)</t>
+          <t>(0.9559985902961721-0.5131838686347787j)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(0.6467656223894502+0.9256776564755651j)</t>
+          <t>(0.9589341478310575-0.5130790461010429j)</t>
         </is>
       </c>
     </row>
@@ -2333,32 +2333,32 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(1.0478463025576115+0.39111196134318194j)</t>
+          <t>(1.0453255392810767+0.3883100094277972j)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(1.0476400653848996+0.39094592278570406j)</t>
+          <t>(1.048413832795253+0.38097307917934503j)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>(1.047874358934704+0.3910443758857702j)</t>
+          <t>(1.0509991492703479+0.37803738795440145j)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>(-0.03514746936578719+0.06291273878413613j)</t>
+          <t>(1.007571259093225+0.47155922582765786j)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(1.0059587428571886+0.472782066457015j)</t>
+          <t>(0.5434510175841969-0.9303197458939391j)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(1.0058140450416544+0.47315761821814406j)</t>
+          <t>(0.544520151412488-0.9303024843126746j)</t>
         </is>
       </c>
     </row>
@@ -2369,32 +2369,32 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(1.0749512733658177-0.1711013331176929j)</t>
+          <t>(1.0723806617522742-0.17244307906484949j)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(1.0748196217879564-0.1705628569948531j)</t>
+          <t>(1.0704941031649775-0.1808496193562704j)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>(1.0744912157045936-0.17071976397428562j)</t>
+          <t>(1.0710527187126015-0.18411532166450095j)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>(-0.007859091958885638+0.07954554246097809j)</t>
+          <t>(1.0844755654621696-0.08962145737560222j)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(1.0851332885387193-0.08714567934735569j)</t>
+          <t>(-0.0199161581942734-1.0668531759789224j)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(1.0838637577286985-0.08806795555830789j)</t>
+          <t>(-0.019315194830729205-1.0679467357861177j)</t>
         </is>
       </c>
     </row>
@@ -2405,32 +2405,32 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(0.8382142785535431-0.6619243879441248j)</t>
+          <t>(0.8365442177540635-0.6632550190340492j)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>(0.8379572970215466-0.6612609721665059j)</t>
+          <t>(0.8309952560550689-0.6698792848428897j)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>(0.837361990887517-0.6620308002438433j)</t>
+          <t>(0.8293895475926983-0.672295667018978j)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>(0.020693851025894418+0.06664687851864187j)</t>
+          <t>(0.8849223097530615-0.6087381207888761j)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(0.8870237598243882-0.6085253573946027j)</t>
+          <t>(-0.5634135718745126-0.9046716934285538j)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(0.8873835681688559-0.608723857151502j)</t>
+          <t>(-0.5628270509121764-0.9051063980946334j)</t>
         </is>
       </c>
     </row>
@@ -2441,32 +2441,32 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(0.4089122842028323-0.9786593643780751j)</t>
+          <t>(0.4054594314702553-0.9783180125629655j)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(0.40864864525282557-0.9790984002230114j)</t>
+          <t>(0.3980030573750112-0.982362583069766j)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>(0.40827196211236155-0.9791429758932023j)</t>
+          <t>(0.39567419277317917-0.9838649290826395j)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>(0.03938144702366591+0.04515234264078142j)</t>
+          <t>(0.46321543587476227-0.9618701147575471j)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0.4625106836530041-0.9584654502706486j)</t>
+          <t>(-0.9410762213411231-0.4913359640110467j)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(0.46230311719750095-0.958047427369868j)</t>
+          <t>(-0.9405752127035053-0.4917867957527546j)</t>
         </is>
       </c>
     </row>
@@ -2477,32 +2477,32 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(-0.12129697105155422-1.05604558382949j)</t>
+          <t>(-0.12332556541584344-1.054012561691634j)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(-0.12139397863453236-1.0560241028516242j)</t>
+          <t>(-0.1326523726062833-1.0528229381305039j)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>(-0.12155423468671295-1.0563624202244555j)</t>
+          <t>(-0.13465784040726606-1.054250521508029j)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>(0.04472055290414855+0.020166820671665257j)</t>
+          <t>(-0.07522355201159975-1.0610990428358935j)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(-0.07420742880727842-1.0586140117462828j)</t>
+          <t>(-1.0559492627050033+0.04766008381903052j)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(-0.07470977616762184-1.0586281225313836j)</t>
+          <t>(-1.0561158959214547+0.046724184600004125j)</t>
         </is>
       </c>
     </row>
@@ -2513,32 +2513,32 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(-0.6314437180162187-0.864666566007776j)</t>
+          <t>(-0.6322572068500887-0.8615163834876529j)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(-0.6312378577514736-0.8646357825478976j)</t>
+          <t>(-0.6400061378489061-0.8565947219416684j)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>(-0.6314939038078968-0.8652879599203918j)</t>
+          <t>(-0.6416804218759095-0.8563876547036984j)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>(0.03683740934221916-0.0013754086753864714j)</t>
+          <t>(-0.5896176190182633-0.8797108252525465j)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(-0.5888625645726814-0.8790583445395662j)</t>
+          <t>(-0.886890989471288+0.5613209594105013j)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(-0.5883776530264728-0.8790187955800987j)</t>
+          <t>(-0.8883465247880726+0.5612019428696069j)</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(-0.9847821594468781-0.4357956535957921j)</t>
+          <t>(-0.9832820072576944-0.4327944352208591j)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(-0.9846749763494579-0.4355281688701162j)</t>
+          <t>(-0.9879554989067454-0.4235797631912605j)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>(-0.9846538551231525-0.43579722509417546j)</t>
+          <t>(-0.9894690196294177-0.422464383270876j)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>(0.021622262212393148-0.015139133420880552j)</t>
+          <t>(-0.9453898229692737-0.4698988889305971j)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(-0.9437744433160599-0.4693699561869867j)</t>
+          <t>(-0.4972237604177444+0.917565566040135j)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(-0.944372549836148-0.46961043494093324j)</t>
+          <t>(-0.4977289264184244+0.9173634762009335j)</t>
         </is>
       </c>
     </row>
@@ -2585,32 +2585,32 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(-1.0680109988212856+0.11985691022346241j)</t>
+          <t>(-1.0657385425236787+0.12177747838509918j)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(-1.0673487118820244+0.12020938051245549j)</t>
+          <t>(-1.0634428881756084+0.1318569415351973j)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>(-1.0676893550965023+0.12078893429980303j)</t>
+          <t>(-1.065190017957576+0.13356122433178116j)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>(0.003243405421952624-0.018404518353656814j)</t>
+          <t>(-1.048240995916902+0.05546545536701585j)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(-1.0499363267108217+0.0553416304347135j)</t>
+          <t>(0.00403087015700466+1.0326105990568741j)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(-1.0498581354229146+0.05511343632845096j)</t>
+          <t>(0.0032731742689713628+1.0329458122110449j)</t>
         </is>
       </c>
     </row>
@@ -2621,32 +2621,32 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(-0.8528926577288451+0.6249665974947196j)</t>
+          <t>(-0.8517184291669307+0.6252656197066773j)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(-0.8529806626756394+0.6252126791976159j)</t>
+          <t>(-0.8456946190580922+0.6336456952320454j)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>(-0.8532027815505324+0.6250042479151028j)</t>
+          <t>(-0.8447928713175871+0.6350638880074956j)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>(-0.013323151356296734-0.008744182044963737j)</t>
+          <t>(-0.8827919812371005+0.5548677974728299j)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(-0.8832442292286306+0.5547377298689476j)</t>
+          <t>(0.49357959309265764+0.9066131818324178j)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(-0.8833778693411186+0.5551755719874834j)</t>
+          <t>(0.4933736821202962+0.9073257065409552j)</t>
         </is>
       </c>
     </row>
@@ -2657,32 +2657,32 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(-0.4354319727789567+0.9389837242646119j)</t>
+          <t>(-0.43434845451099413+0.9391895383028769j)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(-0.43508544090428763+0.9389831895511694j)</t>
+          <t>(-0.42483259725479944+0.9419745882180853j)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>(-0.43559234937597996+0.939249681418383j)</t>
+          <t>(-0.42433342811421465+0.9441641815283912j)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>(-0.020957990794496572+0.010106227501203902j)</t>
+          <t>(-0.5059314212484778+0.9020715802318046j)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(-0.5066162724789429+0.9021360546895474j)</t>
+          <t>(0.8689780565078106+0.5696927681240299j)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(-0.5063807018592505+0.9022376097855767j)</t>
+          <t>(0.8695389825187774+0.571008265343548j)</t>
         </is>
       </c>
     </row>
@@ -2693,32 +2693,32 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(0.052603817988836614+1.013547038332021j)</t>
+          <t>(0.05407937231340495+1.0127596159274286j)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(0.05233832184989815+1.0140878621965115j)</t>
+          <t>(0.06264229606138011+1.011162405933358j)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>(0.05256468610135428+1.0139535681296934j)</t>
+          <t>(0.06400487509721638+1.0131068987999807j)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>(-0.014026095512674084+0.030479610085044566j)</t>
+          <t>(-0.024614548279476883+1.028675797849999j)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(-0.024330179934770376+1.029527062675997j)</t>
+          <t>(1.053064056376527+0.089641718757269j)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(-0.02413904267341245+1.0299100195337734j)</t>
+          <t>(1.0537993473248826+0.09038104446736497j)</t>
         </is>
       </c>
     </row>
@@ -2729,32 +2729,32 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(0.5029711997909964+0.8712144162042722j)</t>
+          <t>(0.5028129608673231+0.8700410476103017j)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(0.5034025815932259+0.8712923301641332j)</t>
+          <t>(0.5112417180077216+0.8655353479774156j)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>(0.502755685965333+0.8719914409164959j)</t>
+          <t>(0.5130179122778508+0.8651624438846497j)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>(0.001841870075482928+0.04432763299722931j)</t>
+          <t>(0.454482301785423+0.9256184696459278j)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0.4552007164407265+0.9269693589211759j)</t>
+          <t>(0.9877712172281917-0.44187832728554866j)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(0.45526739126469196+0.9270094322543889j)</t>
+          <t>(0.9888119767013497-0.4412971592338488j)</t>
         </is>
       </c>
     </row>
@@ -2765,32 +2765,32 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(0.8467021454988379+0.5565896120836777j)</t>
+          <t>(0.8468286101023772+0.554913810889213j)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(0.8465363643294128+0.5571251832338999j)</t>
+          <t>(0.8516234579984643+0.5480055061388432j)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>(0.847295879579024+0.5569341453581508j)</t>
+          <t>(0.8535101981543302+0.5469258478821815j)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>(0.02797849936645524+0.049031036969151225j)</t>
+          <t>(0.8385997368926278+0.6215489681326577j)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(0.8380080608830606+0.6218494543117618j)</t>
+          <t>(0.6513769790293453-0.8964318593671333j)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(0.8390954809890669+0.6223480147779153j)</t>
+          <t>(0.6525054649441396-0.8965092797075985j)</t>
         </is>
       </c>
     </row>
@@ -2801,32 +2801,32 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(1.033217560737742+0.11663913370179736j)</t>
+          <t>(1.0315796480180877+0.11435618321083597j)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(1.0328578695192896+0.11614548663588914j)</t>
+          <t>(1.0336777810552071+0.10504383106986785j)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>(1.0339429381639622+0.11581815936286968j)</t>
+          <t>(1.0349706930273035+0.1038729115619351j)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>(0.05428735290067096+0.03803578063316194j)</t>
+          <t>(1.0512095630238973+0.16792472072214754j)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(1.0538782231104615+0.16887985911040534j)</t>
+          <t>(0.10049919977076774-1.125463912633412j)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(1.053880812063487+0.16851752811815535j)</t>
+          <t>(0.10180173842852461-1.1259073667570136j)</t>
         </is>
       </c>
     </row>
@@ -2837,32 +2837,32 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(0.9991469288034097-0.39044567849272044j)</t>
+          <t>(0.997038238445076-0.39135214714449273j)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(0.9961117255245246-0.3905817142377835j)</t>
+          <t>(0.9940112299854148-0.4013480384819703j)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>(0.9996382874079343-0.3913477792169599j)</t>
+          <t>(0.9941636904372784-0.4024107420310879j)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>(0.0740747975317513+0.008715832728052864j)</t>
+          <t>(1.0296355338224819-0.35348356105666723j)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(1.029585344370408-0.35298755651791786j)</t>
+          <t>(-0.5064827040794038-1.0167123791545865j)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(1.0297822234642122-0.3526885896457223j)</t>
+          <t>(-0.506302157683195-1.0187845111775562j)</t>
         </is>
       </c>
     </row>
@@ -2873,32 +2873,32 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(0.7118179175866036-0.8561069536112482j)</t>
+          <t>(0.709714493026161-0.8574360897507775j)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(0.7079300162251453-0.8540548935845413j)</t>
+          <t>(0.7012852145437033-0.8649739741413982j)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>(0.7120506215359014-0.8567733436419088j)</t>
+          <t>(0.7010398340551265-0.8664631834788756j)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>(0.07836789643736534-0.023834769414435453j)</t>
+          <t>(0.7545302770175452-0.8269407951597803j)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(0.7539466285217898-0.8239899710148955j)</t>
+          <t>(-0.9556264388105083-0.5901115768619707j)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(0.7540369662098471-0.8244341900236448j)</t>
+          <t>(-0.9556620518612543-0.59180702161319j)</t>
         </is>
       </c>
     </row>
@@ -2909,32 +2909,32 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(0.1931553369167947-1.1257139288619253j)</t>
+          <t>(0.1906769548814628-1.124803029213848j)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(0.19117637668847104-1.1191507172184723j)</t>
+          <t>(0.17926511618300983-1.127341802691793j)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>(0.1933704285210897-1.124911896129867j)</t>
+          <t>(0.17766102817601667-1.128503677511817j)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>(0.06773210229928305-0.05720973424468728j)</t>
+          <t>(0.2581614675462446-1.109230517340761j)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0.2586601219104783-1.1070373137505534j)</t>
+          <t>(-1.097588034091162-0.0032987324526970196j)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(0.2586330504302616-1.1073128774711805j)</t>
+          <t>(-1.0981659375067634-0.004052138076412584j)</t>
         </is>
       </c>
     </row>
@@ -2945,32 +2945,32 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(-0.4041468592340878-1.071144665614531j)</t>
+          <t>(-0.4052787079076042-1.0686784035832098j)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(-0.4035414361221745-1.0631814456330262j)</t>
+          <t>(-0.4165996496417314-1.0649486652728117j)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>(-0.4037124479664585-1.070780991060876j)</t>
+          <t>(-0.4188622760346589-1.064300717708214j)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>(0.04138294707303977-0.0838737874290727j)</t>
+          <t>(-0.3239751095116662-1.0942028638212062j)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(-0.3222317440448211-1.09313036924003j)</t>
+          <t>(-0.9183146931894031+0.5477628463211224j)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(-0.32236153442254395-1.0932806766863776j)</t>
+          <t>(-0.9192889381325346+0.5469251726434537j)</t>
         </is>
       </c>
     </row>
@@ -2981,32 +2981,32 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(-0.8672110523444853-0.7108312502762267j)</t>
+          <t>(-0.8678587462422804-0.7081832940607707j)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(-0.8640380305426265-0.7048437422920367j)</t>
+          <t>(-0.8742275282272982-0.6987707920395894j)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>(-0.8674060958603819-0.7111369597202233j)</t>
+          <t>(-0.8767872090327914-0.6977299888688555j)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>(0.005404413745159954-0.09836508232232016j)</t>
+          <t>(-0.810795434172361-0.7844914223695255j)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(-0.8080305546164482-0.7841268053093254j)</t>
+          <t>(-0.5037291069264273+0.9219577910547554j)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(-0.8078768710953662-0.7845210135352111j)</t>
+          <t>(-0.5058348933251583+0.9224528188176295j)</t>
         </is>
       </c>
     </row>
@@ -3017,32 +3017,32 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(-1.0694361897344868-0.19538121597172986j)</t>
+          <t>(-1.0683369502773283-0.19305683071902513j)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(-1.0628162861782509-0.19195128157396477j)</t>
+          <t>(-1.0698182107083636-0.1816159473183578j)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>(-1.0695250837329244-0.19547351690798992j)</t>
+          <t>(-1.0711480870461576-0.1797471626605442j)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>(-0.035135099721894006-0.09486418006401032j)</t>
+          <t>(-1.0641982623775694-0.2892399703431131j)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(-1.0634000875896568-0.29113641297249904j)</t>
+          <t>(0.032261311385269005+1.041862119823957j)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(-1.0644880498084952-0.29072203523010176j)</t>
+          <t>(0.030732466400550832+1.0422170014425034j)</t>
         </is>
       </c>
     </row>
@@ -3053,32 +3053,32 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>(-1.0013368717581437+0.31905717337608j)</t>
+          <t>(-0.9977904988430604+0.31973649188076614j)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(-1.00115641230102+0.3193912615756769j)</t>
+          <t>(-0.993963773745572+0.32940838629875774j)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>(-1.0013200528237693+0.31892672898710406j)</t>
+          <t>(-0.9947071738464379+0.33245210027891897j)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>(-0.06404868748481429-0.06804356630614722j)</t>
+          <t>(-1.0478727265714134+0.2451019192306866j)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(-1.0480155247537069+0.2435367700790012j)</t>
+          <t>(0.5630125361412545+0.8791721376568556j)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(-1.0478867647461294+0.24336855460366252j)</t>
+          <t>(0.5620557633851729+0.8808466330488369j)</t>
         </is>
       </c>
     </row>
@@ -3089,32 +3089,32 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(-0.7323083247774795+0.7321531741233509j)</t>
+          <t>(-0.730231663557981+0.732265179619631j)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(-0.731543493689926+0.732328949064855j)</t>
+          <t>(-0.722201097267344+0.7387269536885945j)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>(-0.7315659326844641+0.7323850046170589j)</t>
+          <t>(-0.7206787835919729+0.7421160931045682j)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>(-0.08657131275355515-0.03762878346863267j)</t>
+          <t>(-0.8017274213485108+0.6960729695700784j)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(-0.8018426465581389+0.6934069977127756j)</t>
+          <t>(0.9525938800840581+0.4623088572819669j)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(-0.8006641540296053+0.6933902836854706j)</t>
+          <t>(0.951861473285988+0.46325069008551256j)</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(-0.31494567283958075+0.9918883464828931j)</t>
+          <t>(-0.3121452486667178+0.9914153006320929j)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(-0.31481535626508556+0.991365824790683j)</t>
+          <t>(-0.3027452308926238+0.9938053737419988j)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>(-0.3144521722089352+0.991317464627392j)</t>
+          <t>(-0.2994244849568696+0.9955635434041511j)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>(-0.09266699688174926-0.002853667361074126j)</t>
+          <t>(-0.38289226177904706+0.9872668887919613j)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(-0.38373986063970356+0.9850912407264294j)</t>
+          <t>(1.064351159456103-0.1175097879921154j)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(-0.3837653449027891+0.9850445755802925j)</t>
+          <t>(1.066136837908729-0.11685847783729172j)</t>
         </is>
       </c>
     </row>
@@ -3161,32 +3161,32 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(0.19526307227125772+1.0439059838638858j)</t>
+          <t>(0.1977616975124579+1.0432816925413109j)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(0.19519039391265056+1.0440707496933104j)</t>
+          <t>(0.20818922461944633+1.0414248157785557j)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>(0.19554727682683143+1.044448399031042j)</t>
+          <t>(0.21267654107448328+1.0417420844052596j)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>(-0.08452783349319064+0.035164956690730775j)</t>
+          <t>(0.13196235179265017+1.0597811575699054j)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(0.13029627915104972+1.0601629504994194j)</t>
+          <t>(0.8304155391210133-0.6694535400911437j)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(0.13055146329096468+1.059698885900048j)</t>
+          <t>(0.8341949445086975-0.6700491709276887j)</t>
         </is>
       </c>
     </row>
@@ -3197,32 +3197,32 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(0.7033951836210278+0.8354077156630711j)</t>
+          <t>(0.7051390063822035+0.8332976042088853j)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(0.7033569293596302+0.8353822959522904j)</t>
+          <t>(0.7148885533677395+0.8263090487790439j)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>(0.7033758601118767+0.8349809226720595j)</t>
+          <t>(0.718161057442904+0.8243419230884833j)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>(-0.0629844751894009+0.06095154819462397j)</t>
+          <t>(0.6409769968960846+0.8723513925459455j)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0.63920762264851+0.8745655322603451j)</t>
+          <t>(0.342404375522254-0.9937776683600379j)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(0.6390925652993305+0.8741573500587851j)</t>
+          <t>(0.34309298961021667-0.9921692880864438j)</t>
         </is>
       </c>
     </row>
@@ -3233,32 +3233,32 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(1.0539504514600506+0.36298158336011704j)</t>
+          <t>(1.0516472393987346+0.36005025341749597j)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(1.0533061210372043+0.36286997911619284j)</t>
+          <t>(1.0568750651158687+0.34797712323001945j)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>(1.0540473969271442+0.36396727665111206j)</t>
+          <t>(1.0594197398258902+0.3445433544415422j)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>(-0.03023764399716208+0.07835759694356738j)</t>
+          <t>(1.0064838969499554+0.43864253537260856j)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(1.0050948814739278+0.44052518420429615j)</t>
+          <t>(-0.21552390844521013-1.0046887078073066j)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(1.0043280368497651+0.44029081338785325j)</t>
+          <t>(-0.21474843363983556-1.0038188506776626j)</t>
         </is>
       </c>
     </row>
@@ -3269,32 +3269,32 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(1.0818204943381786-0.24267598713300267j)</t>
+          <t>(1.0782843313984027-0.2444044464793422j)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(1.0811967961193567-0.242516912912551j)</t>
+          <t>(1.074052808806283-0.2560823523754778j)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>(1.081369630032041-0.24266353552884892j)</t>
+          <t>(1.0742832369949342-0.2613435077260596j)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>(0.017138655383088335+0.10062782265538511j)</t>
+          <t>(1.0893996282582064-0.13734086910337892j)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(1.0896661223450215-0.13526818373607302j)</t>
+          <t>(-0.6725668518882922-0.7447869610855221j)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(1.0897846670002216-0.1349019954101219j)</t>
+          <t>(-0.671881334193607-0.7453690213769183j)</t>
         </is>
       </c>
     </row>
@@ -3305,32 +3305,32 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(0.7773106820890747-0.7458788997932435j)</t>
+          <t>(0.7753089648425925-0.7465663652359852j)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(0.7771175220714325-0.7455035882112734j)</t>
+          <t>(0.7653400449654661-0.7541436284743671j)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>(0.7780664749176482-0.7456523352249542j)</t>
+          <t>(0.7629041751313103-0.7581296986753199j)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>(0.04291132526426647+0.06750935399110732j)</t>
+          <t>(0.8521920773047799-0.6640761379355077j)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(0.8547150614626358-0.6634389385282751j)</t>
+          <t>(-0.9400865808302409-0.3216246096114617j)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(0.8549140787984043-0.6632924107140394j)</t>
+          <t>(-0.9392679091327717-0.32185024297101494j)</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(0.2883896982839516-0.9945348894742289j)</t>
+          <t>(0.2870840686507053-0.9928633913325834j)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(0.28921920329944867-0.9956756697680771j)</t>
+          <t>(0.27577811003585123-0.9961694603450029j)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>(0.2891812997763144-0.9955888542963697j)</t>
+          <t>(0.2714568307930887-0.9980193108963606j)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>(0.07871795951085395+0.03975857375276682j)</t>
+          <t>(0.39362708567586047-0.9788785230953647j)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(0.3952687526468082-0.9768723835889905j)</t>
+          <t>(-0.9839612871901953+0.16994102561863222j)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(0.3947817131692885-0.9766513366379276j)</t>
+          <t>(-0.9840103292836738+0.16898865450468578j)</t>
         </is>
       </c>
     </row>
@@ -3377,32 +3377,32 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(-0.2166290745167074-0.9791273263435958j)</t>
+          <t>(-0.2175550031657521-0.9758525223681677j)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(-0.21679036129500837-0.9791926756023625j)</t>
+          <t>(-0.22792195029805626-0.9734532827937623j)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>(-0.21666521871089597-0.9794041662706612j)</t>
+          <t>(-0.2328612088615838-0.9733725864028978j)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>(0.06855334779415008+0.007480979027193349j)</t>
+          <t>(-0.13329351130662362-1.0212694595840681j)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(-0.13079106712588842-1.020136620327231j)</t>
+          <t>(-0.7951404791826622+0.6356139270538371j)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(-0.13141951373927838-1.0211903149674209j)</t>
+          <t>(-0.7949142882930338+0.6349515156342659j)</t>
         </is>
       </c>
     </row>
@@ -3413,32 +3413,32 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(-0.6395265236703963-0.752369253566941j)</t>
+          <t>(-0.6390447679148493-0.7496553739846449j)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(-0.6404107453827372-0.7535190165285448j)</t>
+          <t>(-0.6469178121107229-0.7426588430256067j)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>(-0.6393887812628005-0.7525331179267036j)</t>
+          <t>(-0.6505590564671606-0.7404842978818408j)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>(0.0586989674801507-0.023377613698165843j)</t>
+          <t>(-0.5990802292696586-0.820709082329466j)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(-0.598621557471374-0.8224690190269651j)</t>
+          <t>(-0.3891138738805056+0.9683788654300275j)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(-0.5983716608392826-0.8226604965052309j)</t>
+          <t>(-0.38979685392797325+0.9689786626146032j)</t>
         </is>
       </c>
     </row>
@@ -3449,32 +3449,32 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(-0.9225298490341767-0.3697580220606324j)</t>
+          <t>(-0.921068019982436-0.36805786413010044j)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(-0.9225886300651784-0.3692774983300821j)</t>
+          <t>(-0.9256812430094542-0.3572475768996994j)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>(-0.9224250636550254-0.36976221731392916j)</t>
+          <t>(-0.9272968919506097-0.3544435779471201j)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>(0.034098207332914646-0.05979570006166367j)</t>
+          <t>(-0.920482178632964-0.436377941214072j)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(-0.9186586227073478-0.43739393942436344j)</t>
+          <t>(0.15630240848810362+1.0592951055783857j)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(-0.9186954381494612-0.43723443348948815j)</t>
+          <t>(0.15580600999533606+1.0598807718844516j)</t>
         </is>
       </c>
     </row>
@@ -3485,32 +3485,32 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(-1.0120028518516166+0.11765257098262717j)</t>
+          <t>(-1.0116869144694076+0.11834920439058405j)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>(-1.0119866684543757+0.11729217100696605j)</t>
+          <t>(-1.0109170647355596+0.13108716371145276j)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>(-1.0129707591898625+0.11694785607140755j)</t>
+          <t>(-1.0119847055115367+0.13496311753983117j)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>(-0.004504433780592978-0.0594171952746599j)</t>
+          <t>(-1.0324402281033316+0.0615002885726696j)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(-1.033297404592638+0.059695206624600615j)</t>
+          <t>(0.6837329701890896+0.8406527232452736j)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(-1.033596891118292+0.060360284752843454j)</t>
+          <t>(0.6835698494733519+0.8415771888424305j)</t>
         </is>
       </c>
     </row>
@@ -3521,32 +3521,32 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(-0.8487302041311736+0.6207201772171791j)</t>
+          <t>(-0.8471060897226425+0.6215032111117003j)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>(-0.84952701456655+0.6206218597041528j)</t>
+          <t>(-0.8394776771894699+0.6333776287372862j)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>(-0.8490637635708841+0.6206360554180209j)</t>
+          <t>(-0.83845184903808+0.636484267072874j)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>(-0.011874621474449811-0.03057224768339515j)</t>
+          <t>(-0.887806011865168+0.5731890354177777j)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(-0.8874921925716688+0.5713912197475479j)</t>
+          <t>(1.011643897889214+0.37189207795096474j)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(-0.8870216725196396+0.5718624717071265j)</t>
+          <t>(1.0120976325323217+0.3730806904341141j)</t>
         </is>
       </c>
     </row>
@@ -3557,32 +3557,32 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(-0.42320849806308963+0.9943898401339588j)</t>
+          <t>(-0.4204503681132181+0.9962101019552771j)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>(-0.4222575404427989+0.9941225234684675j)</t>
+          <t>(-0.4067169298961299+1.0001571881353692j)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>(-0.4229051514142711+0.994201767323908j)</t>
+          <t>(-0.40395991221860705+1.0025507552906843j)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>(-0.025529512035153114-0.012587664646822547j)</t>
+          <t>(-0.4891425072671159+0.9585385957005568j)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(-0.49020905502058354+0.9583515327984116j)</t>
+          <t>(1.0480811468208724-0.18460657255897586j)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(-0.49053781302050226+0.9583190654090397j)</t>
+          <t>(1.0480715256417088-0.1839877205782912j)</t>
         </is>
       </c>
     </row>
@@ -3593,32 +3593,32 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(0.15840132484750394+1.0746512476027905j)</t>
+          <t>(0.16030251454878633+1.0743711440684887j)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>(0.15791148001838162+1.0751995124084224j)</t>
+          <t>(0.17494471034746228+1.0705850384953222j)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>(0.15812118611122933+1.0745066674276844j)</t>
+          <t>(0.17788558663515444+1.0711336119286796j)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>(-0.026245707863631586+0.009200980236020739j)</t>
+          <t>(0.0664866574199183+1.0836808382831187j)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(0.06474090025402071+1.0841428696260613j)</t>
+          <t>(0.80866429646457-0.6661840075261781j)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(0.06558890516583632+1.0839402028462684j)</t>
+          <t>(0.8092625922823564-0.6663490906643456j)</t>
         </is>
       </c>
     </row>
@@ -3629,32 +3629,32 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(0.6765409686702932+0.8258490837469423j)</t>
+          <t>(0.6767816355810872+0.8226203469978457j)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>(0.6761246282517372+0.8253652303386254j)</t>
+          <t>(0.686964112440094+0.8135525613818476j)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>(0.6768876126958503+0.8261469358147657j)</t>
+          <t>(0.6900263844600392+0.8118392076536396j)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>(-0.014716330627965015+0.02908130994454777j)</t>
+          <t>(0.6013506871749127+0.8937051708172598j)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(0.6006347059668821+0.8947011371323865j)</t>
+          <t>(0.38303484596574155-0.9738877506261898j)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(0.5999184838839828+0.8929769758394686j)</t>
+          <t>(0.3838295884032983-0.9735084159207138j)</t>
         </is>
       </c>
     </row>
@@ -3665,32 +3665,32 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(0.9646213284727022+0.36978611669911127j)</t>
+          <t>(0.9651972271386742+0.3672208525568918j)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(0.9650659940941093+0.3699425116842828j)</t>
+          <t>(0.9689927187886652+0.3545134553267427j)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>(0.9649549271218516+0.36975683032775924j)</t>
+          <t>(0.9702461991571472+0.3534631249118293j)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>(0.008080444081607307+0.03945142521407385j)</t>
+          <t>(0.9487341865102148+0.4708848739054306j)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(0.9455735746438856+0.4705366969901411j)</t>
+          <t>(-0.1385059153856897-1.0407074667721634j)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(0.9454937614113188+0.4701765234893282j)</t>
+          <t>(-0.13744393569109886-1.041031617748859j)</t>
         </is>
       </c>
     </row>
@@ -3701,32 +3701,32 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(0.9945623395153849-0.12773886076279203j)</t>
+          <t>(0.9945930462230369-0.12908843122333752j)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>(0.9948523851226957-0.12770028859204316j)</t>
+          <t>(0.9918038866487777-0.1419635790508431j)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>(0.9949517650038515-0.12770768375938968j)</t>
+          <t>(0.9922966001551223-0.1440882030363803j)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>(0.03514802281911206+0.03548044408801129j)</t>
+          <t>(1.0336603359823668-0.04074825814978642j)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(1.0353052162579965-0.0395458862841248j)</t>
+          <t>(-0.6459315831199796-0.8516912789010935j)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(1.0354710171552353-0.039647977594879j)</t>
+          <t>(-0.6453254933515633-0.8524506049559362j)</t>
         </is>
       </c>
     </row>
@@ -3737,32 +3737,32 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(0.8112570804114446-0.5547954017198127j)</t>
+          <t>(0.8102700585981191-0.5562650413860195j)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>(0.8112362378767671-0.554322619105186j)</t>
+          <t>(0.8028561825094827-0.5654153260597983j)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>(0.8109211395161307-0.5543274677713224j)</t>
+          <t>(0.802491071801959-0.5681328883551954j)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>(0.05721244447523326+0.014317985943981018j)</t>
+          <t>(0.8789815844535737-0.5071662648182184j)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(0.8795705263056546-0.505750898078557j)</t>
+          <t>(-1.0106743923638293-0.4111231989678757j)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(0.8791763527500119-0.5063996076494127j)</t>
+          <t>(-1.0105697243751042-0.41218662280591173j)</t>
         </is>
       </c>
     </row>
@@ -3773,32 +3773,32 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>(0.47583585548734375-0.8602642095916179j)</t>
+          <t>(0.4730825991855055-0.8601889548701118j)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>(0.4750347931646982-0.8596096883990819j)</t>
+          <t>(0.46305568208970627-0.8666806165206439j)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>(0.47557922630530297-0.8598555475506312j)</t>
+          <t>(0.4615150189812775-0.8679511468569603j)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>(0.06515450552504477-0.0158582688330351j)</t>
+          <t>(0.5471464565065361-0.8452905270889122j)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(0.5493984520541821-0.8458444796125535j)</t>
+          <t>(-1.0952720195470176+0.19172415942673293j)</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(0.5488054321496996-0.8458852082525878j)</t>
+          <t>(-1.0958719660837746+0.19000988351309123j)</t>
         </is>
       </c>
     </row>
@@ -3809,32 +3809,32 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>(0.03607663498067115-0.9988321854408261j)</t>
+          <t>(0.03374874824686316-0.9990863498596712j)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>(0.03626764566181436-0.9985036217537071j)</t>
+          <t>(0.021531409230721756-0.999136081188218j)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>(0.0366202210050619-0.9991454708393841j)</t>
+          <t>(0.01979656823721569-1.0006243856105868j)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>(0.056531871673718696-0.04866128290435666j)</t>
+          <t>(0.10486340397700031-1.0103182576273873j)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(0.10642844232228751-1.0105728542279846j)</t>
+          <t>(-0.8157311645574489+0.7598137084752165j)</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(0.10598303459476334-1.010331946592349j)</t>
+          <t>(-0.8178844727911332+0.7586029299531226j)</t>
         </is>
       </c>
     </row>
@@ -3845,32 +3845,32 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>(-0.4429596076151961-0.9288763367069951j)</t>
+          <t>(-0.44537586092044007-0.928157540090234j)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>(-0.44346053270602875-0.9299860028282748j)</t>
+          <t>(-0.4582325144078287-0.9220959249061821j)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>(-0.4437600836210713-0.9294307055093838j)</t>
+          <t>(-0.4608268623040128-0.922072662695406j)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>(0.03199540025865029-0.07347993832430344j)</t>
+          <t>(-0.3785652318803242-0.9638944509898771j)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(-0.37736979673758947-0.9644949223116748j)</t>
+          <t>(-0.2609850796897928+1.0573794730018038j)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(-0.3773456841075381-0.9645551358307837j)</t>
+          <t>(-0.26202355849430614+1.0578581446858581j)</t>
         </is>
       </c>
     </row>
@@ -3881,32 +3881,32 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>(-0.8618412551251361-0.6222139135449559j)</t>
+          <t>(-0.8630593067177942-0.6199557438106573j)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>(-0.8613991086279662-0.6226102841709624j)</t>
+          <t>(-0.8722165662949856-0.6089047976548103j)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>(-0.8619757780471701-0.6222793385277199j)</t>
+          <t>(-0.8746641931032992-0.6076384529354495j)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>(-0.0032156777527290836-0.08783312851483906j)</t>
+          <t>(-0.8074593673331447-0.6876011841098066j)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(-0.8069863386144915-0.6890967655705306j)</t>
+          <t>(0.33541001019502387+0.9937452022808833j)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(-0.8073142943356145-0.6881461428637181j)</t>
+          <t>(0.33433885786717615+0.9947712811368239j)</t>
         </is>
       </c>
     </row>
@@ -3917,32 +3917,32 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>(-1.0813749866712856-0.11896414884297814j)</t>
+          <t>(-1.0790096938879954-0.11577071480250471j)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>(-1.0817080716242742-0.1188563778067707j)</t>
+          <t>(-1.0817824293300746-0.10066417331179041j)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>(-1.0815657416890097-0.11985377540185184j)</t>
+          <t>(-1.084357946278722-0.09833541153698752j)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>(-0.0414960449382449-0.08294813713822385j)</t>
+          <t>(-1.0664942009232419-0.2142646987561183j)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(-1.0633038834673345-0.21551965342751273j)</t>
+          <t>(0.7689345964683835+0.6456550774333141j)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(-1.0634506505868997-0.21563908420630598j)</t>
+          <t>(0.7679807262004842+0.6471433314234153j)</t>
         </is>
       </c>
     </row>
@@ -3953,32 +3953,32 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>(-0.9970362020595659+0.4404917427640814j)</t>
+          <t>(-0.9948151864565434+0.4419439801758058j)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>(-0.9966212195703859+0.44014429546282846j)</t>
+          <t>(-0.9892262988129746+0.45668225182030864j)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>(-0.9971082103459764+0.4396259482366127j)</t>
+          <t>(-0.9890130760880367+0.4604005814434543j)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>(-0.08067626187950594-0.059521932127392874j)</t>
+          <t>(-1.0425358808619805+0.34489191753419945j)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(-1.0434998797266308+0.3430969122185981j)</t>
+          <t>(0.955934316573322+0.1632958953065167j)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(-1.0438149210517877+0.34429685612783084j)</t>
+          <t>(0.9562576987124813+0.1650411201678706j)</t>
         </is>
       </c>
     </row>
@@ -3989,32 +3989,32 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>(-0.6435650805408402+0.8660839428995737j)</t>
+          <t>(-0.6395998254262948+0.8655583019450003j)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(-0.6434629888886735+0.8664798349981822j)</t>
+          <t>(-0.6282834998221996+0.8749731092930567j)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>(-0.6440802708189995+0.8665020936261102j)</t>
+          <t>(-0.6259368197773754+0.8794108898792066j)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>(-0.10198610521273689-0.02157845834885465j)</t>
+          <t>(-0.7312356400449167+0.8161741145528973j)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(-0.7315686291187612+0.8137946730664217j)</t>
+          <t>(0.8951485102504536-0.3270128307389724j)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(-0.7312602225825852+0.8146899254151357j)</t>
+          <t>(0.8962373710396638-0.32617300066927046j)</t>
         </is>
       </c>
     </row>
@@ -4025,32 +4025,32 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(-0.1424987630375925+1.0476006717742232j)</t>
+          <t>(-0.14003534894386685+1.0476603737765908j)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>(-0.14283748428563114+1.0474149882659103j)</t>
+          <t>(-0.12534478235806157+1.0496202047839096j)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>(-0.14307550959399964+1.0480896294976374j)</t>
+          <t>(-0.1213755676009499+1.0501344445115592j)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>(-0.10393618865418552+0.02237257653788219j)</t>
+          <t>(-0.230608354989483+1.052513073160708j)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(-0.2322476769609432+1.0541447358700815j)</t>
+          <t>(0.613147924708981-0.7239909351307189j)</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(-0.2326971888443553+1.0540879541032016j)</t>
+          <t>(0.6144488932117979-0.7240822130920164j)</t>
         </is>
       </c>
     </row>
@@ -4061,32 +4061,32 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>(0.36442256211456325+0.9741023139379256j)</t>
+          <t>(0.3658175581518636+0.9715045648709217j)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>(0.36398488103725984+0.9741451376551934j)</t>
+          <t>(0.3794846001766692+0.9664342200712355j)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>(0.3636888617527786+0.974549577068257j)</t>
+          <t>(0.3829543490515747+0.9660009509044166j)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>(-0.09133284390285108+0.06767425806026826j)</t>
+          <t>(0.30334248269752145+1.014481091779805j)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(0.300778040110866+1.015292327293044j)</t>
+          <t>(0.17067478544403453-0.9423256398815851j)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(0.30091356974923855+1.0151686434827885j)</t>
+          <t>(0.1717431031952062-0.9428539208832455j)</t>
         </is>
       </c>
     </row>
@@ -4097,32 +4097,32 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>(0.7752037471760039+0.6848762567294915j)</t>
+          <t>(0.774818688067914+0.6814152118880417j)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>(0.7751612407077055+0.6847617034401173j)</t>
+          <t>(0.7841138911172938+0.6702899455819382j)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>(0.7753584187133014+0.6855406244214207j)</t>
+          <t>(0.7872854354950438+0.6679160867674305j)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>(-0.052041235221970475+0.09365181706087294j)</t>
+          <t>(0.7389078016818138+0.7340357486800296j)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(0.7377808897129104+0.7367260779770756j)</t>
+          <t>(-0.3381813303956757-0.9160164684483837j)</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(0.7370848516893915+0.7364774975107805j)</t>
+          <t>(-0.3374369827016448-0.9170928686841526j)</t>
         </is>
       </c>
     </row>
@@ -4133,32 +4133,32 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>(1.012386102116652+0.23616923018207267j)</t>
+          <t>(1.0116946965324827+0.23335740192271587j)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>(1.0118786209434458+0.23589176275068752j)</t>
+          <t>(1.0145968706641086+0.21804428801984782j)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>(1.0117147646746845+0.23602241936956392j)</t>
+          <t>(1.0162887233517837+0.2143118380626571j)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>(-0.010279952555632016+0.1203627869599543j)</t>
+          <t>(0.9903637169961976+0.29127976619410334j)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(0.9888923575262593+0.2931611566332572j)</t>
+          <t>(-0.7708894616413542-0.6198181526808286j)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(0.9895086836716565+0.2925435676113572j)</t>
+          <t>(-0.7703634553301655-0.6214542500306948j)</t>
         </is>
       </c>
     </row>
@@ -4169,32 +4169,32 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>(1.0133604522696766-0.2898538203387787j)</t>
+          <t>(1.0090125800238372-0.2913619929337011j)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>(1.0133183256551943-0.2899351219457872j)</t>
+          <t>(1.0057336678668127-0.3067741483224557j)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>(1.0134668212813043-0.2894660063318334j)</t>
+          <t>(1.0057254336604426-0.31172695252894594j)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>(0.03399859125588918+0.09880073337559135j)</t>
+          <t>(1.0096619759829504-0.22141955673742236j)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(1.0097413100898227-0.21901963138945219j)</t>
+          <t>(-0.9856234005717939-0.13641972159099727j)</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(1.0093811504694068-0.21908439579056696j)</t>
+          <t>(-0.9862001654809465-0.1370915848975511j)</t>
         </is>
       </c>
     </row>
@@ -4205,32 +4205,32 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>(0.7364848443905602-0.7591563943246283j)</t>
+          <t>(0.7344994713458708-0.7611563654972137j)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>(0.7374219496116018-0.7590799137989854j)</t>
+          <t>(0.7217519349915597-0.7714117400355706j)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>(0.7370849576843722-0.7581233929738046j)</t>
+          <t>(0.7194935592937365-0.775390291506385j)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>(0.08263262739342375+0.07785086647124363j)</t>
+          <t>(0.7733810647029477-0.6926273481431956j)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(0.7756686736290429-0.690605819724398j)</t>
+          <t>(-0.9140585463732738+0.3864587331638046j)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(0.7754199890003027-0.6908471146523111j)</t>
+          <t>(-0.9141723042641061+0.38563407534018157j)</t>
         </is>
       </c>
     </row>
@@ -4241,32 +4241,32 @@
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>(0.2448794190317483-1.0285550597149236j)</t>
+          <t>(0.24203422728043525-1.028363820536443j)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>(0.2452369160833122-1.0275858957034119j)</t>
+          <t>(0.22581980551412154-1.0316666501785092j)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>(0.24494815343932558-1.0279759292098574j)</t>
+          <t>(0.22051816861181744-1.0334949882584288j)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>(0.10496380701417127+0.03366564382755666j)</t>
+          <t>(0.32425803324315894-0.9928500435636604j)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(0.3264135828556066-0.9901862330765707j)</t>
+          <t>(-0.5946128556770849+0.7897310610785895j)</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(0.32606721379423914-0.9896227116834025j)</t>
+          <t>(-0.5958023233010461+0.7893531154223773j)</t>
         </is>
       </c>
     </row>
@@ -4277,32 +4277,32 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>(-0.31558162466634987-0.9919680295158204j)</t>
+          <t>(-0.317677717669123-0.9898685385550632j)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>(-0.31543036375119-0.9917952517221345j)</t>
+          <t>(-0.33270087776712687-0.9833862288103197j)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>(-0.3153109902846697-0.991830293534449j)</t>
+          <t>(-0.33811770017083537-0.9826195029434092j)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>(0.1039896305308514-0.016272049132101313j)</t>
+          <t>(-0.22760985551920998-1.0163178888117512j)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(-0.2244126755008408-1.0161567711896378j)</t>
+          <t>(-0.12835789675808074+0.9810412437205565j)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(-0.22492044169895026-1.0155741818846524j)</t>
+          <t>(-0.13011522155093677+0.981312221478651j)</t>
         </is>
       </c>
     </row>
@@ -4313,32 +4313,32 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>(-0.7588436929086807-0.6731405750769388j)</t>
+          <t>(-0.7582612595631563-0.669749797166801j)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>(-0.7589250306284108-0.6736145184854148j)</t>
+          <t>(-0.767213499726677-0.6566996404875027j)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>(-0.7591751973879683-0.6734653583660949j)</t>
+          <t>(-0.7723246579226424-0.6532869835700817j)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>(0.08099957024259131-0.05915615311053433j)</t>
+          <t>(-0.7111541552285433-0.7463803839179891j)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(-0.708609687350733-0.7475750997579974j)</t>
+          <t>(0.36553571039755917+0.9232438850177426j)</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(-0.708343455279392-0.7474701964143934j)</t>
+          <t>(0.3646766353328146+0.9230589102900902j)</t>
         </is>
       </c>
     </row>
@@ -4349,32 +4349,32 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>(-0.9651394469237868-0.19327146045711516j)</t>
+          <t>(-0.9633406538110793-0.19033869686918273j)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>(-0.9651923370805676-0.19352833846965375j)</t>
+          <t>(-0.9651907650103104-0.17518396620325585j)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>(-0.9652968550938655-0.19356322243811314j)</t>
+          <t>(-0.9671668651097202-0.1709074014960269j)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>(0.040317528793339094-0.08328603462646929j)</t>
+          <t>(-0.9735554917064658-0.2717517269635401j)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(-0.972352310483801-0.2746301861758339j)</t>
+          <t>(0.7763024212578745+0.6369635401018973j)</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(-0.9725553180585684-0.2745273691984854j)</t>
+          <t>(0.7750646995890573+0.63790200999199j)</t>
         </is>
       </c>
     </row>
@@ -4385,32 +4385,32 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>(-0.9091179936252625+0.30234363929366226j)</t>
+          <t>(-0.9066979002773105+0.30329832141221025j)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>(-0.9096505027926751+0.30161697729730075j)</t>
+          <t>(-0.9009395263645005+0.3174988926009728j)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>(-0.9092311674412648+0.3019231982684972j)</t>
+          <t>(-0.8999039729050864+0.32155789384773065j)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>(-0.004814228249584226-0.08448390215586099j)</t>
+          <t>(-0.9493958176909871+0.24711884533836265j)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>(-0.9498341989784377+0.24459062315743094j)</t>
+          <t>(1.0053728667569168+0.1805761222942268j)</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(-0.9498089524945685+0.2451968863367488j)</t>
+          <t>(1.0056132871704375+0.1819255518697706j)</t>
         </is>
       </c>
     </row>
@@ -4421,32 +4421,32 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>(-0.6338073944497699+0.6943857902511843j)</t>
+          <t>(-0.630692413366145+0.6944371994630595j)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>(-0.6337649617562244+0.6941597474573776j)</t>
+          <t>(-0.619951657332524+0.7032195047267755j)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>(-0.6344403298481726+0.6941171669978369j)</t>
+          <t>(-0.6176390751908694+0.7076729070344435j)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>(-0.025826255676478088-0.05969709116550973j)</t>
+          <t>(-0.6841666242773321+0.6592955446109755j)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(-0.685901089732454+0.6572338840461219j)</t>
+          <t>(0.9807020453582261-0.3435374277621781j)</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(-0.6865090333554111+0.6575672717785924j)</t>
+          <t>(0.9810551193784026-0.3429121831203244j)</t>
         </is>
       </c>
     </row>
@@ -4457,32 +4457,32 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>(-0.2168486751358604+0.9012527638471561j)</t>
+          <t>(-0.21359037583644286+0.899636763638853j)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>(-0.21711564225210234+0.90129146533062j)</t>
+          <t>(-0.2005696021037164+0.9027209099687579j)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>(-0.2167444560652817+0.9017312530150768j)</t>
+          <t>(-0.1963334886418573+0.9047979826133483j)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>(-0.046509471463902045-0.032747898685009984j)</t>
+          <t>(-0.2760862439618673+0.8829997813657458j)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(-0.2785122777752053+0.8829787795831643j)</t>
+          <t>(0.6878327438219667-0.8106912105372548j)</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(-0.2784394713900509+0.8831088287201531j)</t>
+          <t>(0.6888038975262222-0.809546702027972j)</t>
         </is>
       </c>
     </row>
@@ -4493,32 +4493,32 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>(0.24155384751394493+0.8883226679446404j)</t>
+          <t>(0.2430271943426388+0.8849254479448916j)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>(0.24126817117881555+0.8882825884023635j)</t>
+          <t>(0.2564387748192609+0.8820009518896603j)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>(0.24106434575785912+0.8886969452943653j)</t>
+          <t>(0.2608633770761949+0.8826340235924918j)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>(-0.049690843186042576-0.0009115518871105799j)</t>
+          <t>(0.1679586965658751+0.8929887907851872j)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(0.16672973935463753+0.8939720962061622j)</t>
+          <t>(0.17146583019375589-1.0615192087762342j)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(0.16686334863557423+0.8936173605993758j)</t>
+          <t>(0.1730643485694515-1.0619632910811452j)</t>
         </is>
       </c>
     </row>
@@ -4529,32 +4529,32 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>(0.635401869013675+0.6628375271932556j)</t>
+          <t>(0.636432302254037+0.6600706996347582j)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>(0.6353802246794739+0.6633832043474132j)</t>
+          <t>(0.6458898127463685+0.6505044352988333j)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>(0.6352057521092489+0.6633506529157274j)</t>
+          <t>(0.650133500855406+0.6488664666006065j)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>(-0.03662207256698737+0.026497700007724976j)</t>
+          <t>(0.5595134687856912+0.7079760088571816j)</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>(0.5581266596025342+0.7093478473588551j)</t>
+          <t>(-0.4112210009533563-0.9947990276606039j)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(0.5576672403928343+0.7094426894137276j)</t>
+          <t>(-0.41030056456695685-0.9953473005673933j)</t>
         </is>
       </c>
     </row>
@@ -4565,32 +4565,32 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>(0.8766735660384054+0.2822159749580307j)</t>
+          <t>(0.8765277870096807+0.27901677726182034j)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>(0.8770485886075058+0.2824325350164246j)</t>
+          <t>(0.8810207355095458+0.2656819841196585j)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>(0.8770798029764014+0.2824942266948653j)</t>
+          <t>(0.8830458132900063+0.2625827636826955j)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>(-0.010340306947484354+0.04145220460876714j)</t>
+          <t>(0.8243448372767644+0.3721696289009921j)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(0.8243574153282966+0.37414183943387613j)</t>
+          <t>(-0.8579309104766121-0.6175730750432814j)</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(0.8244929055826876+0.37374885983352624j)</t>
+          <t>(-0.8579106997176299-0.6188048787271778j)</t>
         </is>
       </c>
     </row>
@@ -4601,32 +4601,32 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>(0.9132129610732687-0.16627653322262143j)</t>
+          <t>(0.9105016231443605-0.16834132172113928j)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>(0.9127150967175269-0.16571623656891013j)</t>
+          <t>(0.9092300858946454-0.18253069882398656j)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>(0.9134082920063429-0.1657758822030759j)</t>
+          <t>(0.9101880606873697-0.18621691530472162j)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>(0.018089091741255853+0.03979921171973731j)</t>
+          <t>(0.9193861711918705-0.04982451551333935j)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>(0.9178992918075177-0.04794765691186834j)</t>
+          <t>(-1.0222974887778773-0.07635333726004012j)</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(0.917857344035337-0.04845023153603921j)</t>
+          <t>(-1.0230938715120412-0.07778001852100998j)</t>
         </is>
       </c>
     </row>
@@ -4637,32 +4637,32 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>(0.7386656272608993-0.5823620246269161j)</t>
+          <t>(0.7369351695107497-0.5845874493012385j)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>(0.7387607957011106-0.581980271776657j)</t>
+          <t>(0.7290220090325891-0.5970673967596197j)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>(0.7391514804744075-0.5819820103460895j)</t>
+          <t>(0.7276623362909636-0.6001932564871607j)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>(0.04235714732442627+0.0230726125884784j)</t>
+          <t>(0.8098680355922814-0.4805877987617164j)</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(0.8100745981556978-0.4788945197094802j)</t>
+          <t>(-0.8815610708953399+0.44266174671509023j)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(0.809901629922111-0.4788160244735216j)</t>
+          <t>(-0.8825019031336341+0.4423048908570873j)</t>
         </is>
       </c>
     </row>
@@ -4673,32 +4673,32 @@
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>(0.38515004187471863-0.8766617966127161j)</t>
+          <t>(0.3827696882867717-0.876106688376659j)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>(0.3857169458658026-0.8756659187576211j)</t>
+          <t>(0.369445993435782-0.8839935583742511j)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>(0.38582273018132346-0.8763706584047565j)</t>
+          <t>(0.36638004035708815-0.8868918726533928j)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>(0.05684573666808049-0.0034836575655607695j)</t>
+          <t>(0.5041322269915683-0.8261304408407831j)</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(0.5065044268999439-0.8270471356867549j)</t>
+          <t>(-0.5162819086628123+0.7969818572109534j)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(0.5055967872315409-0.8266649365714599j)</t>
+          <t>(-0.5178763172987605+0.796678302872598j)</t>
         </is>
       </c>
     </row>
@@ -4709,32 +4709,32 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>(-0.07170439686411474-0.9807349769562748j)</t>
+          <t>(-0.07387584493681758-0.979264931153416j)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>(-0.07118794125949142-0.9800320350183849j)</t>
+          <t>(-0.09044842039191711-0.9800791579562014j)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>(-0.07162778509278282-0.9806777666529055j)</t>
+          <t>(-0.09447846464583544-0.9808228115128711j)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>(0.05422269108253359-0.036142699614077615j)</t>
+          <t>(0.05391273016631661-0.9949128967322894j)</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>(0.05527127745803121-0.9963852862408796j)</t>
+          <t>(-0.049900587991953654+0.9137534390901452j)</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(0.055021341470051305-0.996130956088443j)</t>
+          <t>(-0.050208330014552834+0.9143811999532397j)</t>
         </is>
       </c>
     </row>
@@ -4745,32 +4745,32 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>(-0.5439256841339424-0.8557274535209655j)</t>
+          <t>(-0.5452715810748858-0.8529517105729867j)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>(-0.543778337972283-0.8552403954630657j)</t>
+          <t>(-0.5608234438124149-0.8456826609880478j)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>(-0.5444060783975138-0.8553632197489185j)</t>
+          <t>(-0.5646376454743841-0.8440493245658788j)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>(0.034070268198454316-0.06571819242250934j)</t>
+          <t>(-0.44181035612912556-0.923705769805502j)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(-0.4402569666669181-0.9254028852064724j)</t>
+          <t>(0.39709317981839165+0.7976743861800629j)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(-0.44096936009817167-0.9248876348049361j)</t>
+          <t>(0.39609356329488427+0.799238500244336j)</t>
         </is>
       </c>
     </row>
@@ -4781,32 +4781,32 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>(-0.916514842349825-0.5022463616555587j)</t>
+          <t>(-0.9167114389389363-0.5000414314351517j)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>(-0.916378154306327-0.5027723230300843j)</t>
+          <t>(-0.9260647973650412-0.4839046389319845j)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>(-0.9161352739693552-0.5032907776088146j)</t>
+          <t>(-0.9296097855039981-0.4811286081386453j)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>(0.00044252982134191895-0.08231118413307442j)</t>
+          <t>(-0.853572055449287-0.6069185565054199j)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(-0.8525205919362961-0.6080512186111208j)</t>
+          <t>(0.7247465382336588+0.4914617788157169j)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(-0.8524032332614595-0.6071699532857446j)</t>
+          <t>(0.7244074909683134+0.4931540519525153j)</t>
         </is>
       </c>
     </row>
@@ -4817,32 +4817,32 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>(-1.0706986298820016+0.011990722914456573j)</t>
+          <t>(-1.0703696848608393+0.014632699029625919j)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>(-1.070614188200752+0.011431630330908212j)</t>
+          <t>(-1.0706023786025318+0.033893521205855676j)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>(-1.0705668166113627+0.01181197157428578j)</t>
+          <t>(-1.0718613821839282+0.037562616402539946j)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>(-0.0389163387431203-0.08088647425798681j)</t>
+          <t>(-1.0572595042681254-0.11262486398644111j)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>(-1.0572037821257658-0.11333683862527735j)</t>
+          <t>(0.8667977377503546+0.0723351453443425j)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(-1.0572738950359368-0.11323789701487878j)</t>
+          <t>(0.8677481570265702+0.07357212974960431j)</t>
         </is>
       </c>
     </row>
@@ -4853,32 +4853,32 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>(-0.9358245116167823+0.5487793051374301j)</t>
+          <t>(-0.9322308223399198+0.5498688031003249j)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>(-0.9362685873330504+0.5490660654479904j)</t>
+          <t>(-0.9218960723634697+0.5668102778709772j)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>(-0.9363690165687992+0.5491034565184383j)</t>
+          <t>(-0.9213134915990072+0.5714798233223761j)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>(-0.07552436364337546-0.0596795784410653j)</t>
+          <t>(-0.983964242581225+0.42747711201607147j)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(-0.9825303347237311+0.42584801761357377j)</t>
+          <t>(0.7942505819991361-0.36323822476922324j)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(-0.9830701899985581+0.4268173697539978j)</t>
+          <t>(0.7955084554885431-0.3625191588220945j)</t>
         </is>
       </c>
     </row>
@@ -4889,32 +4889,32 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>(-0.5372890726777181+0.9311063496006523j)</t>
+          <t>(-0.5349211699633061+0.9328458426821649j)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>(-0.5387959965321442+0.9304414263386279j)</t>
+          <t>(-0.5168683209707909+0.9412545979328177j)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>(-0.5378656610447973+0.9314419797931572j)</t>
+          <t>(-0.5143008218653403+0.9431376645996643j)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>(-0.10150778322152804-0.012943995301332688j)</t>
+          <t>(-0.6372253738731621+0.8553021300673438j)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(-0.6381988403681109+0.8550714277149294j)</t>
+          <t>(0.5158662592608274-0.7155535492366237j)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(-0.6378078512350327+0.854848108330256j)</t>
+          <t>(0.517703887154932-0.7153976036223416j)</t>
         </is>
       </c>
     </row>
@@ -4925,32 +4925,32 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>(-0.010862412497232401+1.0554008827145946j)</t>
+          <t>(-0.007472272118703554+1.054491308284312j)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>(-0.01105460647082503+1.0550065751973234j)</t>
+          <t>(0.012289456648120723+1.0529065104891824j)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>(-0.01111116522978429+1.0559928069943552j)</t>
+          <t>(0.016014142940421746+1.0536613043049763j)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>(-0.10192325051143182+0.034035145897382116j)</t>
+          <t>(-0.13068994136576356+1.045730306754149j)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(-0.13136849335939096+1.0443688827971664j)</t>
+          <t>(0.0961136988044448-0.8984917153877762j)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(-0.13091390336717257+1.0440632924694455j)</t>
+          <t>(0.09764406487428984-0.8989180169836284j)</t>
         </is>
       </c>
     </row>
@@ -4961,32 +4961,32 @@
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>(0.4883175496389431+0.9070936512671873j)</t>
+          <t>(0.48942344209084127+0.9025590626059856j)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>(0.4880791111085321+0.9067836289256035j)</t>
+          <t>(0.5048921060111428+0.8922068751082898j)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>(0.4881922811822988+0.9070775262287748j)</t>
+          <t>(0.5085474825681164+0.8912104664370258j)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>(-0.0788352528450512+0.0758931951625607j)</t>
+          <t>(0.3905079722464317+0.9557437044831735j)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(0.3903333331625869+0.9560160956420154j)</t>
+          <t>(-0.37844536600839607-0.8517647248250453j)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(0.390968267574066+0.956967385634828j)</t>
+          <t>(-0.37677095754539974-0.8528901841814501j)</t>
         </is>
       </c>
     </row>
@@ -4997,32 +4997,32 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>(0.8404016326956324+0.5521749278505225j)</t>
+          <t>(0.8387233130577267+0.5480130036250358j)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>(0.8397310107850618+0.552535977779956j)</t>
+          <t>(0.8476131108242332+0.5323112755547811j)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>(0.8403585959916676+0.5522677845355969j)</t>
+          <t>(0.850094450464436+0.5296290357236519j)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>(-0.03842212827302646+0.10839144614600604j)</t>
+          <t>(0.7886262713369754+0.6318094697126484j)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(0.7888034794867301+0.6334593869634932j)</t>
+          <t>(-0.782146583111253-0.5591828706298205j)</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(0.7892824721684254+0.6330207770862275j)</t>
+          <t>(-0.7817122685678044-0.5606649964745308j)</t>
         </is>
       </c>
     </row>
@@ -5033,32 +5033,32 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>(0.9816686883352872+0.08817083254235239j)</t>
+          <t>(0.979954242064412+0.08564370904273638j)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>(0.9813047845902846+0.08848161124708j)</t>
+          <t>(0.9799074670590792+0.06763904802772767j)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>(0.9817234442801912+0.08892891509634301j)</t>
+          <t>(0.9820424008925+0.06439635696886885j)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>(0.013317438521889798+0.1169788378553912j)</t>
+          <t>(0.9765599229863897+0.17072128579045212j)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>(0.9761881011064477+0.17150447782617562j)</t>
+          <t>(-0.9845646811044441-0.08118271243722956j)</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(0.9761858724217414+0.17116754973252585j)</t>
+          <t>(-0.984376848070287-0.08282494717540577j)</t>
         </is>
       </c>
     </row>
@@ -5069,32 +5069,32 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>(0.8956497085060358-0.38304072934753813j)</t>
+          <t>(0.8934294291838616-0.3851339489047529j)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>(0.8961477826471714-0.38306593957184915j)</t>
+          <t>(0.8860807245046667-0.40110100689447814j)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>(0.8958466561593399-0.38316717026445085j)</t>
+          <t>(0.8848420251094178-0.40441226043315964j)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>(0.05459294188778994+0.09306936487668184j)</t>
+          <t>(0.9255169090060889-0.31685756226323586j)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(0.9253807998826036-0.3148335802641572j)</t>
+          <t>(-0.903157008427879+0.44584458580926756j)</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(0.9259525324762391-0.3154543262947612j)</t>
+          <t>(-0.9044028140628539+0.4450143438721418j)</t>
         </is>
       </c>
     </row>
@@ -5105,32 +5105,32 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>(0.5987471316808484-0.7659050636888025j)</t>
+          <t>(0.5938214299520933-0.7642636637354734j)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>(0.5987513597063634-0.7659688811933493j)</t>
+          <t>(0.5806983022761345-0.7747063393152398j)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>(0.5986963178663817-0.7656690080522409j)</t>
+          <t>(0.5772966239106089-0.7784849427202293j)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>(0.10218147859794936+0.07559182522489633j)</t>
+          <t>(0.6507187073993324-0.7151717147966766j)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(0.651842294013908-0.713525771648748j)</t>
+          <t>(-0.5516132811606546+0.848549705398443j)</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(0.6519265205569368-0.7135738434547888j)</t>
+          <t>(-0.5538510992278991+0.8487141987235304j)</t>
         </is>
       </c>
     </row>
@@ -5141,32 +5141,32 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>(0.1463299572248714-0.9556142996242168j)</t>
+          <t>(0.1437235818878453-0.9540066447628393j)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>(0.14632938083538918-0.9553434225174415j)</t>
+          <t>(0.12584322838069958-0.9563933008515575j)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>(0.1469453415583355-0.9557335341080674j)</t>
+          <t>(0.12187355956770554-0.9572514818243996j)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>(0.12643579790803966+0.009987112238178381j)</t>
+          <t>(0.21605070537581622-0.9355701580369787j)</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(0.21868629905179623-0.9353914781078044j)</t>
+          <t>(-0.045739786419751204+1.014658749973388j)</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(0.21807062736038363-0.9358798776721651j)</t>
+          <t>(-0.047181866138478336+1.0150520697249281j)</t>
         </is>
       </c>
     </row>
@@ -5177,32 +5177,32 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>(-0.3446203361970458-0.8945390813251957j)</t>
+          <t>(-0.34624665531590354-0.8913934376297277j)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>(-0.3445116723194341-0.8943457316609655j)</t>
+          <t>(-0.3623298709562464-0.8840602537054677j)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>(-0.34445030959273587-0.8946991729126341j)</t>
+          <t>(-0.36695631393202593-0.8832551481550854j)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>(0.11247798323899652-0.036226129149557584j)</t>
+          <t>(-0.27269021337029103-0.9117426275076904j)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(-0.26991891485232095-0.912351888256928j)</t>
+          <t>(0.4696750467614148+0.9027706915418086j)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(-0.2702697016547797-0.9127698788329027j)</t>
+          <t>(0.4683452368718429+0.9032109787596624j)</t>
         </is>
       </c>
     </row>
@@ -5213,32 +5213,32 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>(-0.7327278028978432-0.5931788972574121j)</t>
+          <t>(-0.7320670779147731-0.5898836318531429j)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>(-0.733120150636474-0.5939416659388064j)</t>
+          <t>(-0.7430554281339423-0.5753045546231618j)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>(-0.7325873832176293-0.5940187367888351j)</t>
+          <t>(-0.7472364159775169-0.571650585941934j)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>(0.07744998085317865-0.08143268406381314j)</t>
+          <t>(-0.6784755667584481-0.6473546740377827j)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>(-0.6764596749158318-0.6495725916095956j)</t>
+          <t>(0.8615892450820438+0.5510835029717451j)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(-0.6769086979295301-0.6495086041534953j)</t>
+          <t>(0.8613930699580807+0.5522153689476046j)</t>
         </is>
       </c>
     </row>
@@ -5249,32 +5249,32 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>(-0.910041458458292-0.149770613957486j)</t>
+          <t>(-0.9085954211189873-0.14617876587628095j)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>(-0.9101426156368495-0.14998775106730963j)</t>
+          <t>(-0.9103824724384325-0.12961151526798043j)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>(-0.9107330159818969-0.15063659547673408j)</t>
+          <t>(-0.9122653649166845-0.1243053114257759j)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>(0.026499687281688767-0.1034322365922681j)</t>
+          <t>(-0.891241622033097-0.22634770657408151j)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(-0.8902719438048992-0.22853960680861365j)</t>
+          <t>(1.0317244371129113+0.043091868265566206j)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(-0.8903271330595814-0.22886646337564248j)</t>
+          <t>(1.0323139046742131+0.04431924095127305j)</t>
         </is>
       </c>
     </row>
@@ -5285,32 +5285,32 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>(-0.8500610654983057+0.3051510484383484j)</t>
+          <t>(-0.8467499538296729+0.30715948276041233j)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>(-0.8504481274550151+0.3048551571993241j)</t>
+          <t>(-0.8410520478418074+0.3221695768691048j)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>(-0.8505621285618693+0.30463776316618263j)</t>
+          <t>(-0.840467255069551+0.32733320218373596j)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>(-0.02870860377007301-0.09264394854528532j)</t>
+          <t>(-0.8695377300468555+0.22471681260041998j)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(-0.8715124422921702+0.22280631405928247j)</t>
+          <t>(0.9142337960739935-0.49330823056246875j)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(-0.8709239370830804+0.22267727364753542j)</t>
+          <t>(0.9147702722455017-0.4930354375998133j)</t>
         </is>
       </c>
     </row>
@@ -5321,32 +5321,32 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>(-0.5944798132486238+0.6652831365624886j)</t>
+          <t>(-0.5897349413562327+0.6642094658017926j)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>(-0.5941154397794652+0.6646331467473003j)</t>
+          <t>(-0.5787964297368059+0.6754025606566783j)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>(-0.5940663480979402+0.6644299786376537j)</t>
+          <t>(-0.5754833197235729+0.6798837744291726j)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>(-0.0719933189063104-0.06050185880042927j)</t>
+          <t>(-0.6511421444520092+0.5966146421773811j)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(-0.6530564662751306+0.5943871498235821j)</t>
+          <t>(0.5233475559108104-0.8969720494462228j)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(-0.6527275310568497+0.5950440917231313j)</t>
+          <t>(0.5246780210258707-0.8975246338572311j)</t>
         </is>
       </c>
     </row>
@@ -5357,32 +5357,32 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>(-0.20875053978929758+0.8634828424873299j)</t>
+          <t>(-0.205647058094337+0.8629134109334686j)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>(-0.20890431629998976+0.8635655555949469j)</t>
+          <t>(-0.18856443983824753+0.8664432517525754j)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>(-0.20889237884262013+0.8638562272720532j)</t>
+          <t>(-0.1854143563174476+0.8699140564194733j)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>(-0.06846438648259622-0.019267746345517738j)</t>
+          <t>(-0.3023566832672784+0.8301207075534401j)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(-0.3036329511495818+0.8270346074205301j)</t>
+          <t>(-0.024309827105588145-1.0223395023766686j)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(-0.3044398166007663+0.8271945864227486j)</t>
+          <t>(-0.023486023949844493-1.0221538094118772j)</t>
         </is>
       </c>
     </row>
@@ -5393,32 +5393,32 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>(0.22555896180464455+0.8740287692493101j)</t>
+          <t>(0.22769024485566042+0.8706611550485673j)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>(0.2246888380228789+0.8734217082075233j)</t>
+          <t>(0.24491689009808795+0.8663349169795244j)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>(0.2243654315236575+0.8734123226553189j)</t>
+          <t>(0.2490231345921495+0.8676609120781603j)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>(-0.06663223460388014+0.020281608774630734j)</t>
+          <t>(0.11019470458888207+0.8886965214935757j)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(0.10699671711201159+0.8868437532069151j)</t>
+          <t>(-0.5335370080481854-0.8317626532001557j)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(0.10706203711594986+0.8868587072367281j)</t>
+          <t>(-0.5332656450198289-0.832303984099807j)</t>
         </is>
       </c>
     </row>
@@ -5429,32 +5429,32 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>(0.6296759107290951+0.6810145754327699j)</t>
+          <t>(0.6294334123587938+0.6770487570038819j)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>(0.6293448135507048+0.6806752676966938j)</t>
+          <t>(0.6437708517696018+0.6650823682280836j)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>(0.6295707814359213+0.6813816217014591j)</t>
+          <t>(0.649400235414039+0.6637102381871494j)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>(-0.04526100230677841+0.05423382700082533j)</t>
+          <t>(0.5165163300594575+0.7594060792986904j)</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(0.5148750991177157+0.7624905848539694j)</t>
+          <t>(-0.8462929716949594-0.4259223615499562j)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(0.5144960650360061+0.7622321607874898j)</t>
+          <t>(-0.8461634419309105-0.4277556355143509j)</t>
         </is>
       </c>
     </row>
@@ -5465,32 +5465,32 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>(0.9097250009172794+0.30321073530115145j)</t>
+          <t>(0.9075984409129086+0.2992135286838941j)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>(0.9093529586507835+0.3031471348207196j)</t>
+          <t>(0.9156307708447825+0.28051264728407865j)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>(0.9090124984458688+0.30385252700023707j)</t>
+          <t>(0.9192503503956855+0.27755248990232767j)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>(-0.00787456648861126+0.07253828805181942j)</t>
+          <t>(0.8426574557833522+0.450272114359887j)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(0.8417809369330788+0.45363460330191385j)</t>
+          <t>(-0.909648157167813+0.04626284614320436j)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(0.8419748192693843+0.4539426024372982j)</t>
+          <t>(-0.9099169959790244+0.04568424479727816j)</t>
         </is>
       </c>
     </row>
@@ -5501,32 +5501,32 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>(0.9720445411758466-0.18609007096569813j)</t>
+          <t>(0.9690172418341485-0.18879296968741377j)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>(0.9719731107014772-0.18669459782053976j)</t>
+          <t>(0.9653029954927098-0.21036295439694516j)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>(0.9722919543002566-0.18603187982465474j)</t>
+          <t>(0.9674601439542369-0.21421241312900052j)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>(0.03509802913936556+0.06952155284494649j)</t>
+          <t>(1.0006151395670142-0.005357115415689284j)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(1.0011716566710294-0.002080422124703028j)</t>
+          <t>(-0.7498325723526055+0.46788121159777163j)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(1.0011759825789044-0.0020786913097175217j)</t>
+          <t>(-0.7511376068259642+0.4673309985894978j)</t>
         </is>
       </c>
     </row>
@@ -5537,32 +5537,32 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>(0.7733566387063044-0.6572877102393793j)</t>
+          <t>(0.7706927998576201-0.6578630751754179j)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(0.7735968464266941-0.6571449542165864j)</t>
+          <t>(0.7583836038891429-0.6746721750057624j)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>(0.7740921433578021-0.6570060886881671j)</t>
+          <t>(0.755736467777953-0.6804514575878288j)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>(0.07224475004723849+0.047341002307209744j)</t>
+          <t>(0.9072205002457603-0.5148249403653814j)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(0.909903399558466-0.5126804033318207j)</t>
+          <t>(-0.42737913564286245+0.7628870143855788j)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(0.9105931487993942-0.5126506037007941j)</t>
+          <t>(-0.42875901319406995+0.7629564782833088j)</t>
         </is>
       </c>
     </row>
@@ -5573,32 +5573,32 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>(0.3594513729348903-0.9694509745253435j)</t>
+          <t>(0.35492756101127887-0.9672560791158779j)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>(0.36021840364144503-0.9697930275862753j)</t>
+          <t>(0.3360217124056062-0.9748089267300397j)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>(0.3598401414156648-0.969613381431035j)</t>
+          <t>(0.3312215377935796-0.9790691303779995j)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>(0.12984579638362714-0.019224034669636937j)</t>
+          <t>(0.544040885015797-0.922740282388232j)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(0.5457183117258706-0.9214776570735588j)</t>
+          <t>(-0.00475661542228035+0.8797895627723351j)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(0.5456607976104962-0.9216085654078612j)</t>
+          <t>(-0.006073545944320577+0.8805499021691201j)</t>
         </is>
       </c>
     </row>
@@ -5609,32 +5609,32 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>(-0.1604245087267073-1.0333673386568845j)</t>
+          <t>(-0.16294275382186918-1.0299040894300833j)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>(-0.1604609365409821-1.0336795385653106j)</t>
+          <t>(-0.1836714805720119-1.0256754069118925j)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>(-0.1607819971825422-1.0341574701519356j)</t>
+          <t>(-0.1903768773784145-1.0272243990168481j)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>(0.10975872577708148-0.08201444190962362j)</t>
+          <t>(0.008832084206295264-1.0916108640853501j)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(0.01163531884812559-1.0897149768638283j)</t>
+          <t>(0.43458900274022655+0.7840176480149398j)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(0.011132682277544383-1.0897423396453096j)</t>
+          <t>(0.43296503483850746+0.7842219572866294j)</t>
         </is>
       </c>
     </row>
@@ -5645,32 +5645,32 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>(-0.646612189893141-0.833641779355617j)</t>
+          <t>(-0.6469754940140476-0.8303035927708674j)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>(-0.6460855280949322-0.8338366492888554j)</t>
+          <t>(-0.6628168369452484-0.8169099683887897j)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>(-0.6461620227750859-0.8343257905078145j)</t>
+          <t>(-0.6696928299456423-0.8141345807980245j)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>(0.06394099477063564-0.1291948824047987j)</t>
+          <t>(-0.5415326104984013-0.9579221560628383j)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(-0.5378241771400797-0.9577325767833585j)</t>
+          <t>(0.7853242344149121+0.4749138473749927j)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(-0.5378684872780323-0.9567584051898859j)</t>
+          <t>(0.784738145960644+0.4773496880530807j)</t>
         </is>
       </c>
     </row>
@@ -5681,32 +5681,32 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>(-0.9776778570442024-0.42107063544779844j)</t>
+          <t>(-0.976450106563839-0.41814807451116887j)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>(-0.9777044090711271-0.4217144070369322j)</t>
+          <t>(-0.9842057837164027-0.3977272016145948j)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>(-0.9775339184691203-0.4218016070876497j)</t>
+          <t>(-0.9883690292147459-0.3925511400330998j)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>(-0.00631463805371744-0.15301067387931605j)</t>
+          <t>(-0.9429296956788595-0.5632760059650841j)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(-0.9420570933682219-0.5654372914876296j)</t>
+          <t>(0.9474905109670871+0.014419551367714199j)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(-0.9425639681584841-0.5652135470613295j)</t>
+          <t>(0.9481143818183723+0.01569628580420521j)</t>
         </is>
       </c>
     </row>
@@ -5717,32 +5717,32 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>(-1.0647106532702122+0.10809531427129923j)</t>
+          <t>(-1.0634618799293485+0.11062844450099825j)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>(-1.0645901025826123+0.10764311670530942j)</t>
+          <t>(-1.0597237077576473+0.13195129308846812j)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>(-1.0645904022350616+0.10800124428609173j)</t>
+          <t>(-1.0598698844743675+0.1387591633566744j)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>(-0.07633057549311302-0.13604428684247746j)</t>
+          <t>(-1.0931228609617025-0.02443533322844015j)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(-1.0927627252511944-0.02663113989775941j)</t>
+          <t>(0.8494036085378348-0.4860631810553131j)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(-1.0933763114032353-0.026788711744316546j)</t>
+          <t>(0.8503505162584816-0.48452497532834815j)</t>
         </is>
       </c>
     </row>
@@ -5753,32 +5753,32 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>(-0.8756602975953366+0.6180229062645202j)</t>
+          <t>(-0.8735711288177762+0.6194276082117485j)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>(-0.8761065210195278+0.6177153207415695j)</t>
+          <t>(-0.8594050201833757+0.636690758519299j)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>(-0.87631173019764+0.6177371709129018j)</t>
+          <t>(-0.8569848027961122+0.6425663190927021j)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>(-0.1350072571786943-0.09283024089218034j)</t>
+          <t>(-0.9561890717551265+0.514771565346366j)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(-0.9537612298246971+0.5117633913880032j)</t>
+          <t>(0.4958431908912369-0.8759565329493331j)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(-0.9534487205879204+0.5129606254959287j)</t>
+          <t>(0.49744685094112084-0.8754670506503153j)</t>
         </is>
       </c>
     </row>
@@ -5789,32 +5789,32 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>(-0.4475816305342737+0.9650727619861884j)</t>
+          <t>(-0.4437888031797878+0.9627250396333964j)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>(-0.44825569006760474+0.9644021622698618j)</t>
+          <t>(-0.4234935646135842+0.9716792442474662j)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>(-0.4475724927632915+0.9652157435010503j)</t>
+          <t>(-0.41908314339480135+0.9753466039487826j)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>(-0.13442539969025802-0.03224043743871931j)</t>
+          <t>(-0.5649145075108691+0.8994451446712173j)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>(-0.5648967968621424+0.8968157451998358j)</t>
+          <t>(-0.01864369229468486-1.0256434764489388j)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(-0.5641876641418766+0.8964404659011659j)</t>
+          <t>(-0.01701401933488898-1.0271204994734642j)</t>
         </is>
       </c>
     </row>
@@ -5825,32 +5825,32 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>(0.08695371623815072+1.0425346649450276j)</t>
+          <t>(0.08884222635741225+1.0372986371627417j)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>(0.08687591982664737+1.0426871544927867j)</t>
+          <t>(0.11107535740548344+1.0351175155952947j)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>(0.08632332250196034+1.042283808805465j)</t>
+          <t>(0.11548358988345926+1.0364712829981964j)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>(-0.13430347614760746+0.03191755962937836j)</t>
+          <t>(-0.03975331525213723+1.0462965660577779j)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(-0.04112670343547499+1.0425802259877428j)</t>
+          <t>(-0.5512506675259071-0.8919801775531764j)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(-0.041626613183768466+1.0425766316327394j)</t>
+          <t>(-0.5509513471265536-0.8942711685055169j)</t>
         </is>
       </c>
     </row>
@@ -5861,32 +5861,32 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>(0.5730011933954181+0.8423348670147928j)</t>
+          <t>(0.5731573000692581+0.83837241731046j)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>(0.5733090320891621+0.8430891918936714j)</t>
+          <t>(0.5896891023346549+0.8250193998417478j)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>(0.5735150393931152+0.84390324556719j)</t>
+          <t>(0.5951451725219454+0.8233224743528247j)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>(-0.10266499917150729+0.08752173599610653j)</t>
+          <t>(0.4777386501655362+0.9089212975481895j)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(0.47548221647927447+0.9077636636863617j)</t>
+          <t>(-0.9484219293845084-0.4955903276726049j)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(0.47565440084787863+0.9067780404272365j)</t>
+          <t>(-0.9474275382220633-0.49684050029257315j)</t>
         </is>
       </c>
     </row>
@@ -5897,32 +5897,32 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>(0.8850911853272286+0.44606321994765424j)</t>
+          <t>(0.8836669255516918+0.44171810530652916j)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>(0.8858289425229262+0.44554355648868765j)</t>
+          <t>(0.8921301597720701+0.4228410354289378j)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>(0.8858731043391217+0.44572690029585355j)</t>
+          <t>(0.8942720808780689+0.419236250457196j)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>(-0.04952300769694818+0.11966636848011053j)</t>
+          <t>(0.8445691786845393+0.5379113183938846j)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(0.8424403776981991+0.538632132503847j)</t>
+          <t>(-1.0852929542938097+0.06297864156064552j)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(0.8430680306379705+0.5380070210453944j)</t>
+          <t>(-1.0850394222922606+0.06145798363611961j)</t>
         </is>
       </c>
     </row>
@@ -5933,32 +5933,32 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(0.9654668389078656-0.03441744950340206j)</t>
+          <t>(0.9631221003349977-0.036909404999216945j)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>(0.964848523828155-0.034467039459975056j)</t>
+          <t>(0.9605241260803867-0.05713066074464596j)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>(0.966024906919378-0.03485254947579742j)</t>
+          <t>(0.9614049639899912-0.06224626550187667j)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>(0.0108786825864536+0.12099084844441593j)</t>
+          <t>(0.9735127197635576+0.05059066350470693j)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(0.9714635314939164+0.05213318717216665j)</t>
+          <t>(-0.9034468397001985+0.6201096454590179j)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(0.9717301650522782+0.051228343680093685j)</t>
+          <t>(-0.9055115954234003+0.6186326280718486j)</t>
         </is>
       </c>
     </row>
@@ -5969,32 +5969,32 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>(0.8138753637003513-0.4835703811942871j)</t>
+          <t>(0.8117203176577013-0.48483792836980205j)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>(0.814386768599659-0.48284472794276434j)</t>
+          <t>(0.8002824981655458-0.501787512378028j)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>(0.8145182308464175-0.48318634884207406j)</t>
+          <t>(0.7990020384797341-0.5059479293793581j)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>(0.062464509405270256+0.09313616879686236j)</t>
+          <t>(0.8530037431176986-0.4190978030532704j)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(0.8514411021855322-0.4163058227568758j)</t>
+          <t>(-0.4518772640810662+1.0004008157359927j)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(0.8517969731238114-0.4163214796791372j)</t>
+          <t>(-0.4541253402929574+1.0003518222063428j)</t>
         </is>
       </c>
     </row>
@@ -6005,32 +6005,32 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>(0.4753431964357273-0.8054130675650806j)</t>
+          <t>(0.47236998886313336-0.8060999501651603j)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>(0.4761665533330599-0.8055208451058782j)</t>
+          <t>(0.45494807044932695-0.8153366493106291j)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>(0.4761624637478547-0.8056869613172025j)</t>
+          <t>(0.4518270156740715-0.8190898397028247j)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>(0.0901360770675129+0.04641545641019257j)</t>
+          <t>(0.5349859510389302-0.7639164072394257j)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(0.5343615056038383-0.7598589691902531j)</t>
+          <t>(0.12831151217905437+1.0737590013728457j)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(0.5338393361400998-0.7601461447086406j)</t>
+          <t>(0.12676157532129584+1.0744103599361783j)</t>
         </is>
       </c>
     </row>
@@ -6041,32 +6041,32 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>(0.025791628537458006-0.9314165862229014j)</t>
+          <t>(0.02274956781255791-0.9280077636443901j)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(0.02588059409076304-0.9324017532952474j)</t>
+          <t>(0.0017342581298418333-0.9306992720862741j)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>(0.025675848211380553-0.9321175159583515j)</t>
+          <t>(-0.0027519853213743817-0.9315480274304196j)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>(0.11621238628897876-0.009570967361925345j)</t>
+          <t>(0.09995847777113412-0.9140776260406784j)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(0.10219230660111352-0.9147873386217072j)</t>
+          <t>(0.6463316194302102+0.8375658372371714j)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(0.10154828761840125-0.914204166916212j)</t>
+          <t>(0.6456426073959055+0.8391865213095492j)</t>
         </is>
       </c>
     </row>
@@ -6077,32 +6077,32 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>(-0.4326932922029273-0.823990154794267j)</t>
+          <t>(-0.43485996250626574-0.8208839226046136j)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>(-0.4325063959025616-0.8240817229961406j)</t>
+          <t>(-0.4532638775049267-0.8104080113231297j)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>(-0.43252441114802975-0.8241297517488357j)</t>
+          <t>(-0.458177860435509-0.8102382112283893j)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>(0.09080565828747429-0.060545104807408504j)</t>
+          <t>(-0.34980801957117147-0.8494611647065663j)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>(-0.34762834404513165-0.8494016215412857j)</t>
+          <t>(0.9571464660179245+0.38271190200199723j)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(-0.3484238890259065-0.8498646598828256j)</t>
+          <t>(0.9580413847620678+0.38491032236008205j)</t>
         </is>
       </c>
     </row>
@@ -6113,32 +6113,32 @@
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>(-0.7819020787216285-0.5060768221107166j)</t>
+          <t>(-0.781708041644743-0.5018073851218658j)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>(-0.7822701617862748-0.5061222211797562j)</t>
+          <t>(-0.7947665928886224-0.4841583602722278j)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>(-0.7822105546217765-0.5060887598207118j)</t>
+          <t>(-0.7980219347063364-0.4808452278867231j)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>(0.029177888236708794-0.10405421732011448j)</t>
+          <t>(-0.7214063498244794-0.583403599312461j)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(-0.7169905559817941-0.5827628677781047j)</t>
+          <t>(0.9921909784414246-0.14802577618536183j)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(-0.71724603577456-0.5833872091555611j)</t>
+          <t>(0.9926935495125347-0.1459770190217436j)</t>
         </is>
       </c>
     </row>
@@ -6149,32 +6149,32 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>(-0.931404022856552-0.05720994499196346j)</t>
+          <t>(-0.9308757483070011-0.05281866490752887j)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>(-0.9311684207380886-0.05696815949473973j)</t>
+          <t>(-0.9322226637152026-0.031775770874915434j)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>(-0.9314680971411298-0.0574799827456096j)</t>
+          <t>(-0.933182578041828-0.02705703766884937j)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>(-0.06510271687570109-0.10442190285970829j)</t>
+          <t>(-0.9251882885495725-0.16891310797505452j)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(-0.9215157439080532-0.1708455681272123j)</t>
+          <t>(0.7648762565751133-0.6117314869760374j)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(-0.9217334244145188-0.1708573960111507j)</t>
+          <t>(0.7670388519938892-0.6113122121745451j)</t>
         </is>
       </c>
     </row>
@@ -6185,32 +6185,32 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>(-0.8456792576465163+0.40677416858985593j)</t>
+          <t>(-0.8430289709252057+0.4097379433800025j)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>(-0.8460489439622676+0.40595170175631995j)</t>
+          <t>(-0.834669948719309+0.42947856988117195j)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>(-0.8462386134723963+0.4067179716104921j)</t>
+          <t>(-0.8336431427245916+0.4341550763416996j)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>(-0.10259842986386658-0.05897701691392434j)</t>
+          <t>(-0.9078787727522042+0.29955711614004493j)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(-0.9073856126827718+0.29580623202090145j)</t>
+          <t>(0.34705316766158323-0.8979994605068709j)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(-0.9067316895426355+0.2959660598830232j)</t>
+          <t>(0.34838292934451065-0.8984161854779663j)</t>
         </is>
       </c>
     </row>
@@ -6221,32 +6221,32 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>(-0.5490268344047629+0.7735461737250031j)</t>
+          <t>(-0.545706778315301+0.7744313239964229j)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>(-0.5500241805297924+0.7731316001576874j)</t>
+          <t>(-0.529207745728878+0.7881426379999487j)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>(-0.5489764453637558+0.7737754016081052j)</t>
+          <t>(-0.5250252165936716+0.7922614381941869j)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>(-0.09951483118051256-0.014033476565071621j)</t>
+          <t>(-0.6674567352695883+0.7111619170015586j)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(-0.6683775593235267+0.7069224207960474j)</t>
+          <t>(-0.15072043499896-0.9302405968097706j)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(-0.6680431719100429+0.7070393439158456j)</t>
+          <t>(-0.14957347323567782-0.9317218062426864j)</t>
         </is>
       </c>
     </row>
@@ -6257,32 +6257,32 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>(-0.11263964788083845+0.9617148117858823j)</t>
+          <t>(-0.10788384783220949+0.9603835893637948j)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>(-0.1117951533329834+0.9627079569240988j)</t>
+          <t>(-0.08541579639835627+0.9647488025126801j)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>(-0.11197332658925215+0.9623445679441532j)</t>
+          <t>(-0.0814623603337621+0.9674685523406588j)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>(-0.07185482682293452+0.018317624333146616j)</t>
+          <t>(-0.2500313963789663+0.9591877867730763j)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(-0.2535328546228205+0.9553738298336948j)</t>
+          <t>(-0.59026111129812-0.7176243385906826j)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(-0.2534823102995495+0.9569536082322266j)</t>
+          <t>(-0.5912189313042459-0.71951448062176j)</t>
         </is>
       </c>
     </row>
@@ -6293,32 +6293,32 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>(0.3773019232727237+0.9197004609157091j)</t>
+          <t>(0.3803415483820014+0.9158146510368974j)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>(0.37729817264328075+0.9198003334055005j)</t>
+          <t>(0.4017642789475908+0.9088514081737822j)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>(0.3774738947328614+0.9201272647580835j)</t>
+          <t>(0.40823922735728013+0.9081042934705148j)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>(-0.054373487553440715+0.061106694138515646j)</t>
+          <t>(0.24760063907002783+0.9884839938150667j)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(0.2432640370920995+0.988979310558964j)</t>
+          <t>(-0.8615794964109954-0.31684068634800866j)</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(0.24369316049196552+0.9895737277057813j)</t>
+          <t>(-0.8620079634233128-0.31812510672949235j)</t>
         </is>
       </c>
     </row>
@@ -6329,32 +6329,32 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>(0.7997961571873404+0.6357532525446411j)</t>
+          <t>(0.800474963923536+0.6306657008449661j)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>(0.799674902565304+0.6362352735768665j)</t>
+          <t>(0.815642942707812+0.6123497790311755j)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>(0.7993504807804143+0.6368289409398243j)</t>
+          <t>(0.8207190941733391+0.6089716332093972j)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>(-0.015467202031212214+0.09068310299987035j)</t>
+          <t>(0.7143077075317271+0.767082696402663j)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(0.7081955539989243+0.7694591733565825j)</t>
+          <t>(-0.9005411218866675+0.1618242193368438j)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(0.7086482549189774+0.7686558696974953j)</t>
+          <t>(-0.9014138987099488+0.15989147497762898j)</t>
         </is>
       </c>
     </row>
@@ -6365,32 +6365,32 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>(1.0308472048552706+0.1622124726148205j)</t>
+          <t>(1.0312171841883015+0.15792237395904216j)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>(1.0312543464362482+0.16369225908828622j)</t>
+          <t>(1.0359944678458435+0.1343630632638854j)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>(1.0312854502991797+0.16343454735936191j)</t>
+          <t>(1.0379617634656388+0.12792681230673358j)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>(0.03596375422828859+0.09916167410308599j)</t>
+          <t>(1.0231812240108948+0.3312177114350723j)</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(1.0179792941315975+0.3354384602563976j)</t>
+          <t>(-0.7002274747015254+0.5983928052395606j)</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(1.0187465928080932+0.3344895824057817j)</t>
+          <t>(-0.7023306340949299+0.5984606391204189j)</t>
         </is>
       </c>
     </row>
@@ -6401,32 +6401,32 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>(0.9891122263570133-0.37308471114590264j)</t>
+          <t>(0.9876383837175541-0.3780275450120953j)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>(0.989106712819096-0.37342115252622743j)</t>
+          <t>(0.9804054631697064-0.4010785250610679j)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>(0.9888282184908014-0.37301419748782266j)</t>
+          <t>(0.9778996221947395-0.408010987692476j)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>(0.08991012630379797+0.07934087290287298j)</t>
+          <t>(1.0693452533477494-0.21382220344219818j)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(1.0661656930238217-0.20886408744904147j)</t>
+          <t>(-0.3061962182787684+0.8892307543664976j)</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(1.066444399388189-0.20829676013733642j)</t>
+          <t>(-0.3081342663075237+0.8892747138285813j)</t>
         </is>
       </c>
     </row>
@@ -6437,32 +6437,32 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>(0.6806637281664787-0.813883358785887j)</t>
+          <t>(0.6761316096454351-0.8176845966761976j)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>(0.6800159843145042-0.813205234355592j)</t>
+          <t>(0.655665441596121-0.8330001367991052j)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>(0.6802945496499474-0.813979454399566j)</t>
+          <t>(0.6531550932562177-0.8382682833302955j)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>(0.1284706085637922+0.03142502159071178j)</t>
+          <t>(0.8299708088429814-0.7104892826161223j)</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(0.8326961904294582-0.706373316775942j)</t>
+          <t>(0.19404047421656956+0.9409704749003458j)</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(0.8325244776107436-0.7065368431503971j)</t>
+          <t>(0.19292434404659783+0.9411794126818096j)</t>
         </is>
       </c>
     </row>
@@ -6473,32 +6473,32 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>(0.19939862973153896-1.0390006328443238j)</t>
+          <t>(0.1946910498003164-1.039546851097063j)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>(0.19984358991408777-1.039094023894401j)</t>
+          <t>(0.17028202933811395-1.0434490243644032j)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>(0.19998020009221737-1.0392950681727617j)</t>
+          <t>(0.16390668009009213-1.0453036186488174j)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>(0.1376948639364577-0.031401732661538506j)</t>
+          <t>(0.37991260968680163-1.0216817732300911j)</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(0.38382925816324415-1.018815013976381j)</t>
+          <t>(0.660427086429468+0.722614829943434j)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(0.3839072675257056-1.0194222508391806j)</t>
+          <t>(0.6596812095740393+0.7239694457318546j)</t>
         </is>
       </c>
     </row>
@@ -6509,32 +6509,32 @@
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>(-0.3221655765530402-1.0031782717001831j)</t>
+          <t>(-0.32673526488707816-0.9996425637938876j)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>(-0.32220264659618936-1.0045257523120361j)</t>
+          <t>(-0.34860788744493904-0.9924851848918377j)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>(-0.3224683618591993-1.0036628370251468j)</t>
+          <t>(-0.3561083080329775-0.9925467573556422j)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>(0.08669292111416414-0.11024917066467002j)</t>
+          <t>(-0.1553548864176071-1.071049588518099j)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(-0.15048382547151182-1.0682864851974077j)</t>
+          <t>(0.946316646061135+0.28574488977309437j)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(-0.15100246312695273-1.06843937631533j)</t>
+          <t>(0.9464068260992641+0.2877050510932313j)</t>
         </is>
       </c>
     </row>
@@ -6545,32 +6545,32 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>(-0.7625578581668511-0.7285459294223512j)</t>
+          <t>(-0.7619478613850411-0.7208352115123393j)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>(-0.7627061418182539-0.7289757595940545j)</t>
+          <t>(-0.7786602715357489-0.7054512453866129j)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>(-0.761965952232212-0.7289390134069756j)</t>
+          <t>(-0.7853401467624888-0.7008209537437259j)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>(0.032410991048575664-0.13912924730651974j)</t>
+          <t>(-0.6477290676798596-0.8614919119569894j)</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>(-0.6438544960520789-0.8636490168093075j)</t>
+          <t>(0.971170882045942-0.23565291220932272j)</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(-0.645153219029165-0.8626042148782377j)</t>
+          <t>(0.9717823309991955-0.23385318277573955j)</t>
         </is>
       </c>
     </row>
@@ -6581,32 +6581,32 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>(-1.0215069213816177-0.2732879309802395j)</t>
+          <t>(-1.0201468017189328-0.26763861283990437j)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>(-1.0211870637930585-0.27398743079243176j)</t>
+          <t>(-1.0243095644937825-0.24461841164977374j)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>(-1.0215281811417054-0.2740671355161274j)</t>
+          <t>(-1.0282123153826614-0.2371972287358871j)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>(-0.027998299959406593-0.13961410202240082j)</t>
+          <t>(-0.9820983677056251-0.44131201929843306j)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(-0.9773851910468244-0.44361987195152275j)</t>
+          <t>(0.7303819121775293-0.6956579085641103j)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(-0.9783543051456847-0.4433523175277715j)</t>
+          <t>(0.7322797832418813-0.6940088578134855j)</t>
         </is>
       </c>
     </row>
@@ -6617,32 +6617,32 @@
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>(-1.026924042493218+0.2623983324871607j)</t>
+          <t>(-1.0260739371912042+0.2680240923288217j)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>(-1.0267239938441766+0.2618343266978965j)</t>
+          <t>(-1.0178972381583233+0.29121575797438615j)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>(-1.0274616294598606+0.2618333217787583j)</t>
+          <t>(-1.016944052907564+0.2995132211665178j)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>(-0.08218969127486025-0.11332640179600643j)</t>
+          <t>(-1.0700122079532628+0.096230097773753j)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(-1.0676607869982946+0.09208574582194617j)</t>
+          <t>(0.2974778483893773-0.9791508961003463j)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(-1.0682615023138011+0.0926650135770917j)</t>
+          <t>(0.29963208564143184-0.9791291988723807j)</t>
         </is>
       </c>
     </row>
@@ -6653,32 +6653,32 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>(-0.7559364178644625+0.7421075828153896j)</t>
+          <t>(-0.7507278876311854+0.7452177975313531j)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>(-0.7569434745875934+0.7412399303615106j)</t>
+          <t>(-0.7316523840103623+0.7614282374418151j)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>(-0.7566944156858031+0.7414196889530824j)</t>
+          <t>(-0.7275952722075794+0.7669614336405175j)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>(-0.11705811141370843-0.06795384831176464j)</t>
+          <t>(-0.8710696823369773+0.612538981906951j)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(-0.8710374559196943+0.607250055298803j)</t>
+          <t>(-0.22340206880548608-1.018537711466284j)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(-0.8715293659858624+0.6086951541862264j)</t>
+          <t>(-0.22179796788308734-1.0196298142793514j)</t>
         </is>
       </c>
     </row>
@@ -6689,32 +6689,32 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>(-0.26646867166757343+1.0057090928931982j)</t>
+          <t>(-0.26128108709337855+1.004341207155j)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>(-0.26765452861740324+1.004865728303241j)</t>
+          <t>(-0.2362078254746352+1.0084766451741738j)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>(-0.2671267134498688+1.0055028471986498j)</t>
+          <t>(-0.22957467579547694+1.01136741397792j)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>(-0.12894071258563172-0.014501242511887093j)</t>
+          <t>(-0.43184907055342364+0.9500850658544967j)</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>(-0.4355356319980743+0.9465045864002302j)</t>
+          <t>(-0.7143582388471026-0.7967838574025471j)</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(-0.4339755095317588+0.9471847854892473j)</t>
+          <t>(-0.7121987756670162-0.7978222566794404j)</t>
         </is>
       </c>
     </row>
@@ -6725,32 +6725,32 @@
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
-          <t>(0.27036551528454167+0.9671512051070592j)</t>
+          <t>(0.2744342051898869+0.9621414731315077j)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>(0.26947916903159824+0.9672671558707422j)</t>
+          <t>(0.29857492177360156+0.9501196609272529j)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>(0.2697194481059678+0.9672391853761917j)</t>
+          <t>(0.30326930508911476+0.9514187881193973j)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>(-0.14737118506505925+0.028182270185278954j)</t>
+          <t>(0.10919347367493648+0.998867171042879j)</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(0.1053449914167908+0.997677301463762j)</t>
+          <t>(-1.036801574062959-0.33454859194310166j)</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(0.10552120451292425+0.9987608829107358j)</t>
+          <t>(-1.0367459365313596-0.3370841973295818j)</t>
         </is>
       </c>
     </row>
@@ -6761,32 +6761,32 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
-          <t>(0.684035427665138+0.670671753291965j)</t>
+          <t>(0.6849908123860691+0.6646687623022216j)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>(0.6839034865892633+0.6716054501131025j)</t>
+          <t>(0.6998619944892358+0.6436350103841827j)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>(0.6834680864476561+0.6716134083531466j)</t>
+          <t>(0.703629661533947+0.6432591725775422j)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>(-0.11140866875201134+0.08197790987038577j)</t>
+          <t>(0.5708151953418666+0.7740859373775776j)</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(0.5675953556841773+0.7762543912918457j)</t>
+          <t>(-1.0771289768299868+0.2543490718747385j)</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(0.5691121096645565+0.7763566089632743j)</t>
+          <t>(-1.0783613568881016+0.2523972123803585j)</t>
         </is>
       </c>
     </row>
@@ -6797,32 +6797,32 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>(0.8810234472569228+0.24326026510254467j)</t>
+          <t>(0.8782075510214363+0.23779553482510235j)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>(0.8813277880413608+0.24351408079010084j)</t>
+          <t>(0.8807879485090916+0.2131010395815322j)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>(0.8809264583637465+0.2437550656375651j)</t>
+          <t>(0.8837372786962963+0.21107964833259518j)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>(-0.06069163978781512+0.11709051039772404j)</t>
+          <t>(0.8378787951178807+0.37640157933901364j)</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(0.8370852874851579+0.379977995698488j)</t>
+          <t>(-0.7762215795524811+0.7830696064209748j)</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(0.8377245515775077+0.3804797873772111j)</t>
+          <t>(-0.7784679805424733+0.7822138981294339j)</t>
         </is>
       </c>
     </row>
@@ -6833,32 +6833,32 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>(0.8594218727042411-0.19591074049958898j)</t>
+          <t>(0.8548707250805665-0.19981347870917804j)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>(0.8590015858092568-0.19544550122522183j)</t>
+          <t>(0.8475239276017321-0.22182385281344655j)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>(0.8601073160725158-0.19538418638679494j)</t>
+          <t>(0.8483119591504623-0.2247394942085019j)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>(-0.002139719698525159+0.11768339074466984j)</t>
+          <t>(0.8836302366124317-0.06815765374279396j)</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>(0.8840631357094376-0.06478836439018791j)</t>
+          <t>(-0.23464807204995347+1.0424133809778142j)</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(0.8839679596714582-0.06560265872557147j)</t>
+          <t>(-0.23733169572875046+1.0431090940627044j)</t>
         </is>
       </c>
     </row>
@@ -6869,32 +6869,32 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>(0.657101187620749-0.56519526742992j)</t>
+          <t>(0.6520454630537423-0.5679604278458377j)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>(0.6567197253788983-0.5655754499228055j)</t>
+          <t>(0.6355163213513201-0.5849894973594437j)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>(0.6573020792395972-0.5653432962168519j)</t>
+          <t>(0.6355176651419868-0.5878645305474312j)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>(0.04523699154996676+0.0940284323292722j)</t>
+          <t>(0.7347142495800608-0.46703970558658814j)</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(0.7346245784049286-0.4641267210802868j)</t>
+          <t>(0.3242955961202694+0.9650885592316847j)</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(0.734545030694134-0.4644694794283385j)</t>
+          <t>(0.32272724192317737+0.9669625240052043j)</t>
         </is>
       </c>
     </row>
@@ -6905,32 +6905,32 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>(0.31489254176402387-0.8107084881172447j)</t>
+          <t>(0.3101199872890212-0.8118797853367006j)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>(0.31518679059465593-0.8104276794924262j)</t>
+          <t>(0.28628681988529425-0.8189078257369187j)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>(0.3147188215965773-0.8100899463015048j)</t>
+          <t>(0.2865631066710827-0.8218268869593537j)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>(0.0758125517103435+0.05221096434804121j)</t>
+          <t>(0.4303637817672101-0.7592549622695038j)</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(0.43186950216781517-0.7554905017795712j)</t>
+          <t>(0.724981999002238+0.638498094670553j)</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(0.4324477612653431-0.7568443839822533j)</t>
+          <t>(0.7244463483029294+0.6399871145609122j)</t>
         </is>
       </c>
     </row>
@@ -6941,32 +6941,32 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr">
         <is>
-          <t>(-0.11456389328323387-0.8814319649561776j)</t>
+          <t>(-0.12096069262649718-0.8803409879589746j)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>(-0.11460616041127357-0.8820834989750423j)</t>
+          <t>(-0.1425471167952891-0.8786598342395435j)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>(-0.11493432614917655-0.8826814685179726j)</t>
+          <t>(-0.1472616617377739-0.8798166901324087j)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>(0.044765081023498854+0.005535932922853707j)</t>
+          <t>(0.018727693787381938-0.8857215629867143j)</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(0.0211997116814542-0.8842934554033898j)</t>
+          <t>(0.8912180758281316+0.1948965793561969j)</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(0.019501350497715737-0.8849574617488057j)</t>
+          <t>(0.8917387648403211+0.19752784178538163j)</t>
         </is>
       </c>
     </row>
@@ -6977,32 +6977,32 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>(-0.5512116022130804-0.7304372926928896j)</t>
+          <t>(-0.5550212679347754-0.7248146035132489j)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>(-0.5516151358922438-0.7294125524894955j)</t>
+          <t>(-0.575448075268285-0.7124788010158088j)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>(-0.5521239371029436-0.730165186099238j)</t>
+          <t>(-0.5798569410436936-0.7106264270744472j)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>(0.015294326066593698-0.01812275156117708j)</t>
+          <t>(-0.42777724766843095-0.8054203352474754j)</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(-0.426048169241787-0.8075011361241086j)</t>
+          <t>(0.8509005744281339-0.2508627066518235j)</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(-0.42682551819617076-0.807733854016184j)</t>
+          <t>(0.8519868764455247-0.24987970935872078j)</t>
         </is>
       </c>
     </row>
@@ -7013,32 +7013,32 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>(-0.863748571536284-0.3580150004308604j)</t>
+          <t>(-0.8642245398904802-0.3514508886052928j)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>(-0.8638008914569621-0.3585747717127253j)</t>
+          <t>(-0.8747250314589899-0.329317786092904j)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>(-0.8639674195783392-0.35871965194934646j)</t>
+          <t>(-0.8783794527869521-0.3258666242534565j)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>(0.006773000634447644-0.027010988796818944j)</t>
+          <t>(-0.7974544448025089-0.49819090659861603j)</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(-0.7953878907062018-0.4997268367253312j)</t>
+          <t>(0.6168161527336485-0.6278625982772481j)</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(-0.7962360144079917-0.49919776149609624j)</t>
+          <t>(0.6186225288930741-0.6281869551534238j)</t>
         </is>
       </c>
     </row>
@@ -7049,32 +7049,32 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr">
         <is>
-          <t>(-0.9323666407787194+0.13049372596248962j)</t>
+          <t>(-0.9287079964805353+0.1367269536342149j)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>(-0.9328656287189071+0.13095512459639308j)</t>
+          <t>(-0.9262471703421686+0.16111464931963237j)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>(-0.9328626443076092+0.13129584379720904j)</t>
+          <t>(-0.9281136289587387+0.16615069131414834j)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>(-0.022083948487972398-0.019957104327599402j)</t>
+          <t>(-0.9544741573683226-0.02599738020074532j)</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(-0.9542641206269368-0.02823850037463286j)</t>
+          <t>(0.22064747114081032-0.8593304335680275j)</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(-0.9547702279826499-0.02727736926356484j)</t>
+          <t>(0.22213418495481796-0.8595636781297532j)</t>
         </is>
       </c>
     </row>
@@ -7085,32 +7085,32 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>(-0.7372174442245906+0.5722974597431885j)</t>
+          <t>(-0.7313368567197563+0.5759599017023881j)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>(-0.7374053587279328+0.5718878180409632j)</t>
+          <t>(-0.7174121326151301+0.595556676652285j)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>(-0.7375099526393446+0.5728278237103337j)</t>
+          <t>(-0.7153120957481343+0.5996985899354268j)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>(-0.036726358503498896+0.00778252915142917j)</t>
+          <t>(-0.8403161547494343+0.4555973261709692j)</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(-0.8396474551960674+0.4520876347440001j)</t>
+          <t>(-0.2616101936445435-0.8622931498256311j)</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(-0.8402744532629394+0.4529301418391776j)</t>
+          <t>(-0.26061369219322894-0.8640865021465424j)</t>
         </is>
       </c>
     </row>
@@ -7121,32 +7121,32 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
-          <t>(-0.36840382003960165+0.8463334218187815j)</t>
+          <t>(-0.36228913203651525+0.8467253730648484j)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>(-0.36881994896648806+0.845916327071765j)</t>
+          <t>(-0.3419179496932221+0.8563263779811763j)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>(-0.36854891392766903+0.8464827634914256j)</t>
+          <t>(-0.3380527690611567+0.8594825899719291j)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>(-0.0405621202712648+0.02167073863597766j)</t>
+          <t>(-0.5099769649111345+0.7972400430369184j)</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(-0.5102996052347296+0.7929780866159498j)</t>
+          <t>(-0.6889367472830353-0.5953996242290781j)</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(-0.5105913757018857+0.7935045785627725j)</t>
+          <t>(-0.6883369891368064-0.5971458853414935j)</t>
         </is>
       </c>
     </row>
@@ -7157,32 +7157,32 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>(0.06314057927074643+0.9168761118978512j)</t>
+          <t>(0.06808927492309474+0.9134697282340982j)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>(0.06248687506002368+0.9170282402910067j)</t>
+          <t>(0.09072166356836803+0.9141800900064253j)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>(0.06295809869156713+0.9175633658453832j)</t>
+          <t>(0.09482861030017162+0.9150486521582689j)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>(-0.03133822424052023+0.04900861290040384j)</t>
+          <t>(-0.08185483181979734+0.9365915501441084j)</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(-0.08442221610489696+0.932494988280966j)</t>
+          <t>(-0.8981760436694316-0.13485814227407622j)</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(-0.08319337731053936+0.9335423380253777j)</t>
+          <t>(-0.8986942980588245-0.13671911451555338j)</t>
         </is>
       </c>
     </row>
@@ -7193,32 +7193,32 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
-          <t>(0.4724833290366958+0.7943954899636612j)</t>
+          <t>(0.4768778221745086+0.7917034315352871j)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>(0.4731467542417992+0.7952461273473278j)</t>
+          <t>(0.4978894455554357+0.7811405775992473j)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>(0.47286345451941425+0.795726043618321j)</t>
+          <t>(0.5010274960603464+0.7809482839053553j)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>(-0.038923438904264175+0.10112296083212262j)</t>
+          <t>(0.34652455149657513+0.8684970139144604j)</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(0.34358669152835997+0.8691762727057387j)</t>
+          <t>(-0.8131365562294794+0.34257197765512587j)</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(0.34459371068244193+0.8700218019909107j)</t>
+          <t>(-0.8151418991040368+0.34149428074171767j)</t>
         </is>
       </c>
     </row>
@@ -7229,32 +7229,32 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
         <is>
-          <t>(0.8031535209310922+0.5097173975081286j)</t>
+          <t>(0.8054616952042359+0.5047176699109807j)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>(0.80184642960969+0.5092420803494891j)</t>
+          <t>(0.8191161300143499+0.485452032805856j)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>(0.8031422855635427+0.5100173017476988j)</t>
+          <t>(0.8236912287768233+0.4824493076972993j)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>(0.01646594643663187+0.11993762744809387j)</t>
+          <t>(0.7147684853599352+0.6396682237558987j)</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(0.7104774227556805+0.6395402122108932j)</t>
+          <t>(-0.5234644314865023+0.6934920474329992j)</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(0.7109747683807088+0.6391996319558273j)</t>
+          <t>(-0.5244899813074956+0.692449830606298j)</t>
         </is>
       </c>
     </row>
@@ -7265,32 +7265,32 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
-          <t>(0.987391096879215+0.08180658959592493j)</t>
+          <t>(0.9847713743700229+0.07663695890305114j)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>(0.987790987137638+0.08247608537445512j)</t>
+          <t>(0.989368965897256+0.05176892104218523j)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>(0.9876161862232352+0.08262699417464218j)</t>
+          <t>(0.9934103779721197+0.04655582467710403j)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>(0.07735365123354969+0.11093603970803381j)</t>
+          <t>(0.9651821060202351+0.2545305009589313j)</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(0.9617077934452358+0.2581406868107843j)</t>
+          <t>(-0.12165788616977272+0.8577807591151488j)</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(0.9629035039273682+0.25761454354990937j)</t>
+          <t>(-0.1225405652598706+0.8583756728239865j)</t>
         </is>
       </c>
     </row>
@@ -7301,32 +7301,32 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>(0.9435275372153172-0.4225945799737827j)</t>
+          <t>(0.936348195644955-0.42663260841619294j)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>(0.9434623308171962-0.4224907092451609j)</t>
+          <t>(0.9283663075464983-0.4527321759000468j)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>(0.9435573070551331-0.4222312426839535j)</t>
+          <t>(0.928160743325598-0.45829905251895403j)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>(0.13076536493798793+0.07064268346695181j)</t>
+          <t>(1.0195551696668044-0.2441661955173721j)</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(1.0200427493862405-0.23901629296875915j)</t>
+          <t>(0.3058520007297509+0.8283328142857608j)</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(1.0207320559181678-0.24006060080564204j)</t>
+          <t>(0.30499846588111673+0.8292983917488609j)</t>
         </is>
       </c>
     </row>
@@ -7337,32 +7337,32 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>(0.6183932710275241-0.86106533375181j)</t>
+          <t>(0.6135069502128817-0.8641709519874785j)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>(0.61930090493539-0.8612804969907649j)</t>
+          <t>(0.5900369289085904-0.8812601727572252j)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>(0.6195133454675187-0.8612977743109504j)</t>
+          <t>(0.5855727884908036-0.88516416198517j)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>(0.16147981063827113+0.006048889658986542j)</t>
+          <t>(0.797241024866358-0.751321025202896j)</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(0.7997651017653804-0.7459389549760982j)</t>
+          <t>(0.6900572897086297+0.6068919967542113j)</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(0.8000557702288807-0.7472523242015191j)</t>
+          <t>(0.6898509256422338+0.6081074597502146j)</t>
         </is>
       </c>
     </row>
@@ -7373,32 +7373,32 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>(0.09062946320711623-1.0576959040706948j)</t>
+          <t>(0.08503041415219853-1.0558036158158763j)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>(0.09188032964781871-1.057165332377798j)</t>
+          <t>(0.05565957004528583-1.0572215697288045j)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>(0.09203824948577591-1.057743206122598j)</t>
+          <t>(0.04952659193297241-1.059212486639954j)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>(0.15543344534100395-0.06920875450337687j)</t>
+          <t>(0.3010086175907463-1.0757038390484797j)</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(0.3058153545740352-1.0700829502606302j)</t>
+          <t>(0.9491037869954546+0.20447943923202702j)</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(0.3051754622666332-1.0714219660801696j)</t>
+          <t>(0.949951846095759+0.20600177268123884j)</t>
         </is>
       </c>
     </row>
@@ -7409,32 +7409,32 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr">
         <is>
-          <t>(-0.4436319662718146-0.9355168595587342j)</t>
+          <t>(-0.4468579209438737-0.9294387533637851j)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>(-0.44265602624212735-0.935708260184534j)</t>
+          <t>(-0.4711982322569675-0.9163785545897416j)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>(-0.4431076284521678-0.9357873053276847j)</t>
+          <t>(-0.4784163596894022-0.9145320060718374j)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>(0.08046434160004474-0.09501858691792268j)</t>
+          <t>(-0.2964632671948316-1.0526263055489642j)</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(-0.2912272405897251-1.054198508231384j)</t>
+          <t>(0.9700430728406286-0.3244261081584768j)</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(-0.2921491265095283-1.0543722856337359j)</t>
+          <t>(0.9709697210035908-0.3233470374932987j)</t>
         </is>
       </c>
     </row>
@@ -7445,32 +7445,32 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>(-0.8083175412484955-0.57183310672649j)</t>
+          <t>(-0.8077356017932553-0.5650302421268575j)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>(-0.8080872043200694-0.5723104110841662j)</t>
+          <t>(-0.8218463196806902-0.5424990604666012j)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>(-0.8082330579915006-0.5720863516974987j)</t>
+          <t>(-0.8252164327902822-0.5374214163468063j)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>(0.037402028067161974-0.12111037972135796j)</t>
+          <t>(-0.7518516818117993-0.7229678815430007j)</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(-0.7466166493967042-0.7255137521831614j)</t>
+          <t>(0.6784035592852473-0.8113411174079728j)</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(-0.7478926467948601-0.725417005406466j)</t>
+          <t>(0.6802763994207774-0.8103698484322185j)</t>
         </is>
       </c>
     </row>
@@ -7481,32 +7481,32 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
-          <t>(-0.9389756797952504-0.11226989288205753j)</t>
+          <t>(-0.9351610699811538-0.10765352010793458j)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>(-0.9387894037984961-0.11295418359710926j)</t>
+          <t>(-0.936130386506889-0.08210543773963892j)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>(-0.9397073800777753-0.11251584515354196j)</t>
+          <t>(-0.9381968196688666-0.07614322922169384j)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>(-0.012596225575994165-0.1279818048627422j)</t>
+          <t>(-0.9494684715612035-0.2509548506638205j)</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(-0.9463755636578186-0.2566624162294516j)</t>
+          <t>(0.14776704368770938-1.0506912695663133j)</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(-0.9482875885750475-0.2561694210877846j)</t>
+          <t>(0.14985008014004664-1.0515556198711362j)</t>
         </is>
       </c>
     </row>
@@ -7517,32 +7517,32 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>(-0.8521280350933281+0.3290141288127148j)</t>
+          <t>(-0.8453223690279281+0.3312863000589726j)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>(-0.8515701690992209+0.3286218686371334j)</t>
+          <t>(-0.8352481500527927+0.3529359716688438j)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>(-0.8519417202632596+0.328683395276072j)</t>
+          <t>(-0.8333668076485082+0.35988227431660236j)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>(-0.060877539622877994-0.11001357238294984j)</t>
+          <t>(-0.9094610138770308+0.21102588467374103j)</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(-0.9099843911169022+0.20622696364438636j)</t>
+          <t>(-0.4079621428374248-0.9551940637443387j)</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(-0.9103068214969184+0.20749703764200333j)</t>
+          <t>(-0.40702639751236713-0.9565166396606998j)</t>
         </is>
       </c>
     </row>
@@ -7553,32 +7553,32 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>(-0.5830239805943415+0.675281214637046j)</t>
+          <t>(-0.5762956280253042+0.6738525715725515j)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>(-0.5830936458183383+0.6743372689533671j)</t>
+          <t>(-0.5568904361250682+0.6880601380196579j)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>(-0.5823730730460219+0.6746840430432766j)</t>
+          <t>(-0.5523103297136094+0.6929892224968066j)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>(-0.09627908908470824-0.07733377117997192j)</t>
+          <t>(-0.6837499299965173+0.5865529823058588j)</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(-0.6870493460892085+0.5829252580176346j)</t>
+          <t>(-0.8037214603532399-0.6054918535017668j)</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(-0.6873902152806022+0.5844096580785102j)</t>
+          <t>(-0.8028654700973039-0.6068965249389471j)</t>
         </is>
       </c>
     </row>
@@ -7589,32 +7589,32 @@
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
-          <t>(-0.18467828415204743+0.8595430855236008j)</t>
+          <t>(-0.1793995978870111+0.8561678828119412j)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>(-0.18507503900747985+0.8587141671610661j)</t>
+          <t>(-0.155781118979027+0.8582841209489124j)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>(-0.1853046062791888+0.8588557848178283j)</t>
+          <t>(-0.1495875326222264+0.8614499138904431j)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>(-0.1159804091228331-0.03258015865827982j)</t>
+          <t>(-0.326480031467841+0.8239907191551455j)</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(-0.3298752492335984+0.8198848026449187j)</t>
+          <t>(-0.9704644697704383-0.13537894373931772j)</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(-0.3292175002343369+0.8209726139762458j)</t>
+          <t>(-0.9701610380680147-0.13796526622856078j)</t>
         </is>
       </c>
     </row>
@@ -7625,32 +7625,32 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>(0.25461749363487585+0.8271371379329632j)</t>
+          <t>(0.2588204350862075+0.8227601932002111j)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>(0.2544145934950363+0.8271415497895852j)</t>
+          <t>(0.27989149690003706+0.8103004644184522j)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>(0.25455636171162804+0.8275947635782203j)</t>
+          <t>(0.28763200991594434+0.8120244997008276j)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>(-0.1323561431969976+0.03420816622104167j)</t>
+          <t>(0.1058528083802874+0.8665535251830379j)</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(0.10012055635039378+0.8657723285159199j)</t>
+          <t>(-0.892484173227858+0.339379137924463j)</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(0.10076032257273453+0.8659338817960656j)</t>
+          <t>(-0.8938530948912142+0.33677522231204543j)</t>
         </is>
       </c>
     </row>
@@ -7661,32 +7661,32 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>(0.6201221027762133+0.5809973601947178j)</t>
+          <t>(0.6213295032921565+0.576352713694312j)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>(0.6205786299384429+0.5813610919882458j)</t>
+          <t>(0.6358753753323311+0.557411962811522j)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>(0.6198049733432038+0.5818349828821285j)</t>
+          <t>(0.6414504927093311+0.5529109883126585j)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>(-0.0986834603992501+0.0806549424539319j)</t>
+          <t>(0.5102765331502612+0.6983143316438817j)</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(0.5053614764682971+0.7025699343594631j)</t>
+          <t>(-0.6068763995879164+0.7279980604575499j)</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(0.5068999297790237+0.7016824833731756j)</t>
+          <t>(-0.6089322752097333+0.7269942369565474j)</t>
         </is>
       </c>
     </row>
@@ -7697,32 +7697,32 @@
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>(0.8080388177506745+0.1935706084579031j)</t>
+          <t>(0.8074304648823127+0.1889484690364237j)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>(0.8074638067787446+0.19376991439816646j)</t>
+          <t>(0.809353080566095+0.1666145440931374j)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>(0.8077180987620488+0.1938036637424586j)</t>
+          <t>(0.8138711104562102+0.16014278232397788j)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>(-0.048966906663742094+0.10705458435266477j)</t>
+          <t>(0.7778824580266964+0.35251079127834073j)</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(0.7748658727689772+0.356597382401637j)</t>
+          <t>(-0.15499714335500492+0.9326415311299507j)</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(0.7751076146601765+0.3557720801918468j)</t>
+          <t>(-0.15795758950833927+0.9322560977781955j)</t>
         </is>
       </c>
     </row>
@@ -7733,32 +7733,32 @@
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr">
         <is>
-          <t>(0.7836109551672239-0.2196751137291189j)</t>
+          <t>(0.7815737462577882-0.22309467405931624j)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>(0.7833918994130519-0.21892362387313913j)</t>
+          <t>(0.7734710445478746-0.24347115475921507j)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>(0.7836843775886105-0.21975907891846738j)</t>
+          <t>(0.7750493364920018-0.25043890351323145j)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>(0.003775821735232353+0.10691472633327963j)</t>
+          <t>(0.8354705086146024-0.07331872393684218j)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>(0.8341632144018305-0.06891816890310684j)</t>
+          <t>(0.3420610635671888+0.8618008721120375j)</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(0.8337509717240383-0.06853218240390646j)</t>
+          <t>(0.33977538016056097+0.8633917757178113j)</t>
         </is>
       </c>
     </row>
@@ -7769,32 +7769,32 @@
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr">
         <is>
-          <t>(0.5799841914577898-0.5612428236070086j)</t>
+          <t>(0.5754026944172049-0.5631153364875867j)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>(0.5794642438277308-0.5602668040799074j)</t>
+          <t>(0.5588774771927688-0.5764302102624647j)</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>(0.5805809132937545-0.5611053102866788j)</t>
+          <t>(0.5578093796110837-0.583918980332759j)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>(0.047656398170017045+0.08297025639928998j)</t>
+          <t>(0.6874950813966472-0.46007039600800226j)</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>(0.6883676524080783-0.4546517363641583j)</t>
+          <t>(0.7148751787818214+0.5417893310714235j)</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(0.6883361409855997-0.4551626476149151j)</t>
+          <t>(0.71524057848115+0.5437046326241547j)</t>
         </is>
       </c>
     </row>
@@ -7805,32 +7805,32 @@
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>(0.2529037410850198-0.7758861257810098j)</t>
+          <t>(0.24633650839800456-0.7742017978409259j)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>(0.2521425756922369-0.7755055123827089j)</t>
+          <t>(0.22597382450584594-0.7806059863687864j)</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>(0.25228300624964056-0.7762729503792408j)</t>
+          <t>(0.2219992928948614-0.7854338896905223j)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>(0.07238468572252045+0.039786207579153854j)</t>
+          <t>(0.3897448680661379-0.7297307374135573j)</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>(0.39333117944699114-0.7268667179093504j)</t>
+          <t>(0.8566670156130622+0.09577234352658398j)</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(0.39368393376224753-0.7276512663416213j)</t>
+          <t>(0.8580935516017866+0.0985535659356582j)</t>
         </is>
       </c>
     </row>
@@ -7841,32 +7841,32 @@
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>(-0.14492857054332534-0.8302090089410258j)</t>
+          <t>(-0.1496836678731314-0.8249552547420418j)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>(-0.14480003369783437-0.8292476197797495j)</t>
+          <t>(-0.17154529448260739-0.8189888828589773j)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>(-0.14456422656394471-0.829788831908209j)</t>
+          <t>(-0.1775614415584669-0.8248208746905042j)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>(0.07144107516120224-0.0038876014974212874j)</t>
+          <t>(0.00444570860455113-0.8447336597545837j)</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(0.009304382235581757-0.8435382899387964j)</t>
+          <t>(0.7655773024893359-0.33299875062183165j)</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(0.008452700978611984-0.8437300390254804j)</t>
+          <t>(0.7673925557411443-0.3313593946454596j)</t>
         </is>
       </c>
     </row>
@@ -7877,32 +7877,32 @@
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>(-0.5493406755976007-0.6925898908430951j)</t>
+          <t>(-0.5521662040897675-0.6864642943324121j)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>(-0.5497537725323309-0.6925258868509344j)</t>
+          <t>(-0.5728096376124621-0.6741710447125072j)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>(-0.5502971076764801-0.692253910732142j)</t>
+          <t>(-0.578346824483035-0.6725773115140866j)</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>(0.031009531980545756-0.09584151506817015j)</t>
+          <t>(-0.40512936545440653-0.7721735904979686j)</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>(-0.40145654403522385-0.7734308871699807j)</t>
+          <t>(0.49655427642608274-0.6464094788591317j)</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(-0.402886108577495-0.7746327147662849j)</t>
+          <t>(0.4988913910278008-0.6459117698913445j)</t>
         </is>
       </c>
     </row>
@@ -7913,32 +7913,32 @@
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>(-0.8705247742808919-0.3510730487728857j)</t>
+          <t>(-0.8695723404548092-0.3445524228582327j)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>(-0.8697861526566821-0.351571589243943j)</t>
+          <t>(-0.8828441822119243-0.32111868266296684j)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>(-0.8697799328522265-0.3511660577779598j)</t>
+          <t>(-0.8872862641361883-0.3158902882235466j)</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>(-0.014828157948064762-0.09631711803989797j)</t>
+          <t>(-0.7716529782422891-0.5067938408109633j)</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>(-0.7683625842527564-0.5089002907428026j)</t>
+          <t>(0.12043177289576824-0.8120821711474584j)</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>(-0.768869657196121-0.5086234686094759j)</t>
+          <t>(0.12248617645971242-0.8120906718134963j)</t>
         </is>
       </c>
     </row>
@@ -7949,32 +7949,32 @@
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>(-0.9759175740034495+0.15115273514638217j)</t>
+          <t>(-0.9712156167905686+0.1557980375965807j)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>(-0.9762065170821405+0.15094112344271202j)</t>
+          <t>(-0.9711691249205135+0.18603091403389374j)</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>(-0.9768721150600471+0.151566933384991j)</t>
+          <t>(-0.9727048315859443+0.19239056198346485j)</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>(-0.054103428030053045-0.07909589984000856j)</t>
+          <t>(-0.9762268344431186-0.04951333093113506j)</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>(-0.974565136696464-0.052810652034812756j)</t>
+          <t>(-0.3055772846895916-0.7841789411388312j)</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>(-0.974859497911865-0.051889458136521203j)</t>
+          <t>(-0.30376295928030367-0.7861972221019617j)</t>
         </is>
       </c>
     </row>
@@ -7985,32 +7985,32 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>(-0.7756573550475229+0.6578541428257444j)</t>
+          <t>(-0.7692236417380978+0.6587804511841003j)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>(-0.7756609993093098+0.6573488443538491j)</t>
+          <t>(-0.7513752945631383+0.6830181410068363j)</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>(-0.7769662594356803+0.658069527858597j)</t>
+          <t>(-0.74937548616689+0.6905227225880216j)</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>(-0.10542299625527818-0.028015323293236784j)</t>
+          <t>(-0.8913033582618048+0.48560178608160076j)</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>(-0.8939323915296251+0.4829634927177495j)</t>
+          <t>(-0.694683499248162-0.5385042810196473j)</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>(-0.89476518835242+0.48488432826409567j)</t>
+          <t>(-0.6939798015231671-0.5408483064995262j)</t>
         </is>
       </c>
     </row>
@@ -8021,32 +8021,32 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr">
         <is>
-          <t>(-0.32581511075273145+0.9638245260867736j)</t>
+          <t>(-0.3197382122413283+0.9632790551930708j)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>(-0.32599686323277655+0.9629711616167714j)</t>
+          <t>(-0.29168375529890644+0.9737077714958904j)</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>(-0.32637215980761297+0.9644783254357474j)</t>
+          <t>(-0.2850751990578374+0.977260123543378j)</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>(-0.11602560232147441+0.06244388302798774j)</t>
+          <t>(-0.5081255686804456+0.8885374181496992j)</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>(-0.5126510972684297+0.8888140361152079j)</t>
+          <t>(-0.912067286968496-0.09142966168471249j)</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>(-0.5113083269933769+0.89027960558157j)</t>
+          <t>(-0.9132993278666639-0.09353251256161046j)</t>
         </is>
       </c>
     </row>
@@ -8057,32 +8057,32 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr">
         <is>
-          <t>(0.19318159642646796+0.9797139551127364j)</t>
+          <t>(0.19693712430817342+0.9772609461689099j)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>(0.19235620011733426+0.980032350232506j)</t>
+          <t>(0.22609132920232503+0.972894312624924j)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>(0.19206000277934956+0.9799149665311212j)</t>
+          <t>(0.23222152799301257+0.9731608417002835j)</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>(-0.07934089130797697+0.11616113716547201j)</t>
+          <t>(0.015561734070792447+1.013286182027818j)</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(0.01255805174898575+1.0115623393024569j)</t>
+          <t>(-0.8383804812002258+0.4257338585565754j)</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>(0.014373063334950914+1.0126013526530746j)</t>
+          <t>(-0.8413065617073169+0.4240222503005635j)</t>
         </is>
       </c>
     </row>
@@ -8093,32 +8093,32 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>(0.6225398934246145+0.7538683162143215j)</t>
+          <t>(0.6231529764576398+0.7487437896635374j)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>(0.6227120497643298+0.7537338614240643j)</t>
+          <t>(0.6451303276995897+0.7308478433927613j)</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>(0.6225234019334934+0.7531297084371799j)</t>
+          <t>(0.6517217816135606+0.7277306274469285j)</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>(-0.02007071754802185+0.06447176580554807j)</t>
+          <t>(0.4921396271824169+0.8531451764096954j)</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>(0.48895240028947007+0.8535881405479878j)</t>
+          <t>(-0.47886157937608614+0.8051849868641903j)</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>(0.4899720707885191+0.8532708025279624j)</t>
+          <t>(-0.4806574343339833+0.8053300794831827j)</t>
         </is>
       </c>
     </row>
@@ -8129,32 +8129,32 @@
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
-          <t>(0.8881641301050728+0.3756409807193912j)</t>
+          <t>(0.8863676019055408+0.3698685165590601j)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>(0.8875865211814065+0.3757445001730035j)</t>
+          <t>(0.8980265530649348+0.34563742444659235j)</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>(0.8882809825201321+0.3753998211888329j)</t>
+          <t>(0.9008009649101694+0.34081206550009524j)</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>(0.015375994691134112+0.07863497468845289j)</t>
+          <t>(0.8182596958201337+0.5159236289856448j)</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(0.8161227094965845+0.5174139861294986j)</t>
+          <t>(0.0023510143988602116+0.9299210576264257j)</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>(0.8177841098847066+0.5167329398731166j)</t>
+          <t>(0.0004988560022594598+0.9307398126190477j)</t>
         </is>
       </c>
     </row>
@@ -8165,32 +8165,32 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
-          <t>(0.9604428766831266-0.07542567091105068j)</t>
+          <t>(0.9556103652385065-0.07791943043414917j)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>(0.9603385812416491-0.0743549055191421j)</t>
+          <t>(0.9537183414696311-0.10483186675532215j)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>(0.9604525270216654-0.07504444478796723j)</t>
+          <t>(0.9541907976503518-0.1113651464776915j)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>(0.053514438468619356+0.0712294825586311j)</t>
+          <t>(0.9623785863177251+0.08232181834855543j)</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(0.9595378925251001+0.08491602615507139j)</t>
+          <t>(0.45974067888766784+0.8045007575494614j)</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>(0.9598053759529632+0.08372876714876697j)</t>
+          <t>(0.45870235234808265+0.8065047558799199j)</t>
         </is>
       </c>
     </row>
@@ -8201,32 +8201,32 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>(0.818111789049558-0.5182749977769555j)</t>
+          <t>(0.8134729134264723-0.5187501722382593j)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>(0.8201884435310308-0.5173530277206225j)</t>
+          <t>(0.7976775469671594-0.5430417106574164j)</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>(0.8197102350829519-0.5180286163725487j)</t>
+          <t>(0.7960529609352344-0.5486390843245975j)</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>(0.08840613932804199+0.046222200882502784j)</t>
+          <t>(0.9046459767459908-0.37973419765062305j)</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(0.9031986588938937-0.3759174014769507j)</t>
+          <t>(0.8023851712120564+0.48797818838884033j)</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>(0.9035329680116398-0.37680947859355796j)</t>
+          <t>(0.8024304465047247+0.49016127799631154j)</t>
         </is>
       </c>
     </row>
@@ -8237,32 +8237,32 @@
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
-          <t>(0.4708180691816175-0.8513354297150646j)</t>
+          <t>(0.4672976256316505-0.8503462256454959j)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>(0.47129407774266785-0.8511499605143561j)</t>
+          <t>(0.44087834653543306-0.8620292281410633j)</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>(0.4712625514079493-0.8512129656194108j)</t>
+          <t>(0.43559793279518005-0.8668836915466152j)</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>(0.10835564687509627+0.005587204963945859j)</t>
+          <t>(0.6225924755674713-0.7824780719526021j)</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(0.6268627470498738-0.7805009197413021j)</t>
+          <t>(0.9710959067010931+0.03717997667359193j)</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>(0.6245587195663157-0.7817025920725249j)</t>
+          <t>(0.9708971468876978+0.039144383329804966j)</t>
         </is>
       </c>
     </row>
@@ -8273,32 +8273,32 @@
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
-          <t>(-0.006933510067102084-0.9660182737021177j)</t>
+          <t>(-0.009789475639551723-0.9635756145872161j)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>(-0.006581930545371104-0.965086057495071j)</t>
+          <t>(-0.039174511865350904-0.9600135793117727j)</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>(-0.006735603573531386-0.965611090877249j)</t>
+          <t>(-0.045167348519685145-0.9617537409640688j)</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>(0.10930926304060157-0.04300810145406353j)</t>
+          <t>(0.15174034675139775-0.9970104875391195j)</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(0.15699086273765173-0.9962660356768074j)</t>
+          <t>(0.8938328961358427-0.4739945562899533j)</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>(0.15565196288435412-0.9981007085872866j)</t>
+          <t>(0.8960587248897314-0.47308703184202455j)</t>
         </is>
       </c>
     </row>
@@ -8309,32 +8309,32 @@
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>(-0.47063165029198073-0.8159514000915357j)</t>
+          <t>(-0.47074133987877254-0.8116268815373371j)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>(-0.469516394969516-0.8161943938626027j)</t>
+          <t>(-0.4940123557642054-0.7961136030599755j)</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>(-0.4704200240879839-0.816108823957103j)</t>
+          <t>(-0.4988840899832444-0.7932919210234004j)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>(0.08651564768629066-0.09025898059238041j)</t>
+          <t>(-0.3701439792175671-0.9289614784770147j)</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(-0.36403638233313057-0.9268318337382354j)</t>
+          <t>(0.5328181255944885-0.9056736067377608j)</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>(-0.3664002882476548-0.9269592356540887j)</t>
+          <t>(0.5338016399454051-0.9049610340147497j)</t>
         </is>
       </c>
     </row>
@@ -8345,32 +8345,32 @@
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
-          <t>(-0.7755432414849167-0.46371562636583963j)</t>
+          <t>(-0.7732311655597967-0.45997992874978494j)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>(-0.7756626027678691-0.46380192037088397j)</t>
+          <t>(-0.7840777475480571-0.4347284289000797j)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>(-0.7754131700042973-0.46353389190296557j)</t>
+          <t>(-0.7881148591504492-0.4310311390559357j)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>(0.001286545338832947-0.14734963019817088j)</t>
+          <t>(-0.748827179891796-0.5932610917901946j)</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(-0.7476239581662983-0.5970893685555796j)</t>
+          <t>(-0.04060053977495841-1.04420425717729j)</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>(-0.7480092338784087-0.5968960608591648j)</t>
+          <t>(-0.03827682793866071-1.0454712639083443j)</t>
         </is>
       </c>
     </row>
@@ -8381,32 +8381,32 @@
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr">
         <is>
-          <t>(-0.8641188856432388-0.03671706029974171j)</t>
+          <t>(-0.8598215088774367-0.033657965969344845j)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>(-0.8645075091246126-0.03660607260053467j)</t>
+          <t>(-0.8588993031778533-0.00871252016392299j)</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>(-0.8638969478381213-0.03648343975916313j)</t>
+          <t>(-0.8598634695701565-0.0025024106394677956j)</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>(-0.011857859605058965-0.1343634218918582j)</t>
+          <t>(-0.8934168566829439-0.15063323966340655j)</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(-0.8951685314651227-0.1556021443543514j)</t>
+          <t>(-0.5752080649944172-0.8355219144792113j)</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>(-0.8963165979310215-0.1547745499520023j)</t>
+          <t>(-0.5736942666655115-0.837910971592186j)</t>
         </is>
       </c>
     </row>
@@ -8417,32 +8417,32 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
-          <t>(-0.7523711805998933+0.3588255030965909j)</t>
+          <t>(-0.7483222785757497+0.3593897439723316j)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>(-0.7528908191541754+0.3589957991499954j)</t>
+          <t>(-0.7356924533362191+0.38064878243941974j)</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>(-0.7525561709288193+0.358340079421381j)</t>
+          <t>(-0.734734988154336+0.38638578623617914j)</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>(-0.0991409456326209-0.101121920585852j)</t>
+          <t>(-0.8204312815699526+0.26738536067920116j)</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>(-0.8254521197340482+0.26376026802441865j)</t>
+          <t>(-0.8748022180932622-0.39970731066121107j)</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>(-0.8251063968373397+0.2640948701040247j)</t>
+          <t>(-0.8755093123642422-0.40145231463235537j)</t>
         </is>
       </c>
     </row>
@@ -8453,32 +8453,32 @@
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr">
         <is>
-          <t>(-0.487316255760597+0.6538016586562685j)</t>
+          <t>(-0.48346093523191586+0.6518527614150323j)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>(-0.4879843167452541+0.6527578580445307j)</t>
+          <t>(-0.4639444128710245+0.6651058009112578j)</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>(-0.4875157158240543+0.6528852773088537j)</t>
+          <t>(-0.4591838799800003+0.6689570714358498j)</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>(-0.1262323433892024-0.050119896170639965j)</t>
+          <t>(-0.5916610587136203+0.591900752187284j)</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(-0.5985253995219296+0.5911404732312304j)</t>
+          <t>(-0.9042304453681312+0.07740637922939893j)</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>(-0.597740642318559+0.591363432893106j)</t>
+          <t>(-0.9062831390917339+0.07550557859419733j)</t>
         </is>
       </c>
     </row>
@@ -8489,32 +8489,32 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>(-0.12335517039764121+0.7996294778509695j)</t>
+          <t>(-0.11960215175704175+0.7972627688378042j)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>(-0.1235479117922985+0.8001427689461487j)</t>
+          <t>(-0.08937014669626042+0.7961065971618709j)</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>(-0.12358354287586208+0.8002552642398197j)</t>
+          <t>(-0.09014030923373119+0.8029333570947207j)</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>(-0.11992358125167406+0.029182649790483343j)</t>
+          <t>(-0.2579109690472513+0.7856802626057457j)</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>(-0.26498446607953224+0.7874181587336905j)</t>
+          <t>(-0.7280087144406291+0.47520860025930795j)</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>(-0.26436678044482226+0.7886359283725022j)</t>
+          <t>(-0.7297829294431432+0.4756978863158915j)</t>
         </is>
       </c>
     </row>
@@ -8525,32 +8525,32 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>(0.27518218600600536+0.7677556591727148j)</t>
+          <t>(0.27775508281762007+0.7651429559691302j)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>(0.27477795048287895+0.7676938815280315j)</t>
+          <t>(0.3007825323840031+0.7565245793359349j)</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>(0.2746438625825431+0.76815751086871j)</t>
+          <t>(0.30770236886659297+0.7562420846463458j)</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>(-0.08986082224151755+0.07437861973169885j)</t>
+          <t>(0.13098048529292455+0.8303485430323407j)</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>(0.12344158247158143+0.8290112959015121j)</t>
+          <t>(-0.41091149108595293+0.745421858532793j)</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>(0.12455825192081531+0.8289844270903223j)</t>
+          <t>(-0.4116843014843526+0.7453432947112383j)</t>
         </is>
       </c>
     </row>
@@ -8561,32 +8561,32 @@
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>(0.6244859844119226+0.5458138597487006j)</t>
+          <t>(0.6248934976013384+0.5414188028185595j)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>(0.62459984284511+0.5451179669739545j)</t>
+          <t>(0.644105962034847+0.522532116118047j)</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>(0.6234158160442129+0.5457079208182778j)</t>
+          <t>(0.6486043322000995+0.5193791100785934j)</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>(-0.05489771282321331+0.16724452261369374j)</t>
+          <t>(0.5132991310689761+0.685726009090998j)</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>(0.5094318062795541+0.691305953137216j)</t>
+          <t>(-0.011348224225375705+0.8495344178322942j)</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>(0.5102345921811143+0.6916294931052822j)</t>
+          <t>(-0.013655242651559015+0.8489200126508042j)</t>
         </is>
       </c>
     </row>
@@ -8597,32 +8597,32 @@
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
-          <t>(0.8345500623671457+0.17062180763233065j)</t>
+          <t>(0.8325200996425064+0.16677255951291j)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>(0.8343438093330162+0.17127040957617123j)</t>
+          <t>(0.8411704558135904+0.14073799249744956j)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>(0.8340498826649025+0.17049146899831502j)</t>
+          <t>(0.8455463020897449+0.1337372466047164j)</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>(0.0164364246114511+0.19297797082644677j)</t>
+          <t>(0.806410253287784+0.3623527964490665j)</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>(0.80435090386912+0.36911561827922323j)</t>
+          <t>(0.40366868285989504+0.7538410221856214j)</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>(0.8048640665170769+0.3679427049337572j)</t>
+          <t>(0.40245977130206195+0.7542122456790588j)</t>
         </is>
       </c>
     </row>
@@ -8633,32 +8633,32 @@
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>(0.8343754875948061-0.27669583270764503j)</t>
+          <t>(0.8309754511513826-0.28093756503685097j)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>(0.8346573341368541-0.27730173953024306j)</t>
+          <t>(0.8260649294808085-0.3094806658244754j)</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>(0.8351305456938805-0.2774560014671298j)</t>
+          <t>(0.8252933468226762-0.31756036007254757j)</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>(0.09590127837274255+0.14693936677701305j)</t>
+          <t>(0.9076204688316588-0.0906539736577285j)</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>(0.9077746945210046-0.08229214670583207j)</t>
+          <t>(0.7377575514486837+0.46111344227475265j)</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>(0.9075359784207161-0.08276542453954623j)</t>
+          <t>(0.7368360897515889+0.4621950043648611j)</t>
         </is>
       </c>
     </row>
@@ -8669,32 +8669,32 @@
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
-          <t>(0.6041487135664204-0.6868459553333779j)</t>
+          <t>(0.5990048721911932-0.6882109655404347j)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>(0.6049320949052787-0.6860836793775481j)</t>
+          <t>(0.5789745437958801-0.7108009407948404j)</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>(0.604313972505206-0.68558370073725j)</t>
+          <t>(0.5747347754082528-0.7189990459699512j)</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>(0.15417006765565167+0.05287625600752972j)</t>
+          <t>(0.7591326817542079-0.5536626028379558j)</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>(0.7615561492617314-0.5463442901250865j)</t>
+          <t>(0.8857941932306751+0.02030233051643753j)</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>(0.761215280892347-0.5471056895821449j)</t>
+          <t>(0.8863853563999354+0.024226983151311568j)</t>
         </is>
       </c>
     </row>
@@ -8705,32 +8705,32 @@
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>(0.17767503932523002-0.9426344456027174j)</t>
+          <t>(0.1718182092966594-0.9385350722176329j)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>(0.17757153609106865-0.9410895078702249j)</t>
+          <t>(0.14047705342839814-0.9505437547535086j)</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>(0.17730446717476614-0.9410450687060651j)</t>
+          <t>(0.1325567933460053-0.9553235885460541j)</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>(0.15511201499877952-0.022538507553205796j)</t>
+          <t>(0.38035862595212405-0.8939811941352224j)</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>(0.3867249828119609-0.8881823162181022j)</t>
+          <t>(0.7865671622957475-0.4495785676737781j)</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>(0.3864473360275054-0.8902078076784514j)</t>
+          <t>(0.7881768171102305-0.4473866771085583j)</t>
         </is>
       </c>
     </row>
@@ -8741,32 +8741,32 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>(-0.35541271852740786-0.9410863220215057j)</t>
+          <t>(-0.3586203409587711-0.9338917253828122j)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>(-0.3551095274411266-0.9411107501856448j)</t>
+          <t>(-0.39383710898346913-0.9252829505613591j)</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>(-0.3548054610004187-0.9412481173831168j)</t>
+          <t>(-0.40375654775066216-0.9255841227359963j)</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>(0.09419931586114534-0.11568665362745321j)</t>
+          <t>(-0.141146361303708-0.9938386189631119j)</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>(-0.133090539755654-0.9959843472465549j)</t>
+          <t>(0.4478796724639654-0.8177802099749882j)</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>(-0.13499408632392748-0.9964492856347537j)</t>
+          <t>(0.4503665375548144-0.8176260457722702j)</t>
         </is>
       </c>
     </row>
@@ -8777,32 +8777,32 @@
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>(-0.8336868837630953-0.6275390231165356j)</t>
+          <t>(-0.8346771050213844-0.6206872888699251j)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>(-0.8335394189661691-0.627205561510741j)</t>
+          <t>(-0.860738155150617-0.5938296035909173j)</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>(-0.8341938222036543-0.6270480407202347j)</t>
+          <t>(-0.8698509299591639-0.5871764231330816j)</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>(0.05928253461666151-0.061491506270878266j)</t>
+          <t>(-0.6579520247614398-0.7932026381097829j)</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>(-0.6470044998616272-0.7934748210869537j)</t>
+          <t>(-0.054819812449680295-0.9555227966636578j)</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>(-0.6470062544947954-0.7935722180642836j)</t>
+          <t>(-0.05237449277743684-0.955204957434071j)</t>
         </is>
       </c>
     </row>
@@ -8813,32 +8813,32 @@
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr">
         <is>
-          <t>(-1.0610491831083428-0.07813163298160504j)</t>
+          <t>(-1.0541275427798682-0.07175745437117464j)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>(-1.0605688337471164-0.07708863500615738j)</t>
+          <t>(-1.06019460014089-0.03485184213561359j)</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>(-1.0598767382203242-0.07832160271897894j)</t>
+          <t>(-1.0639806423096132-0.023377189356178517j)</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>(0.015003698684592724-0.08167032891791325j)</t>
+          <t>(-1.0012411301664108-0.3279231725875841j)</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>(-0.9922843582738718-0.33473004527906886j)</t>
+          <t>(-0.5857491800263166-0.8047424978152172j)</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>(-0.9935343466540031-0.3321577196610378j)</t>
+          <t>(-0.5829473622697932-0.8065624190501258j)</t>
         </is>
       </c>
     </row>
@@ -8849,32 +8849,32 @@
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>(-0.9215497558986099+0.49424258770755713j)</t>
+          <t>(-0.9164331657801769+0.496840452235661j)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>(-0.9218389696281781+0.4935720650780396j)</t>
+          <t>(-0.8996714044718698+0.5288600594407578j)</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>(-0.9213379850551123+0.4945268447459894j)</t>
+          <t>(-0.8964455643736218+0.5394738364043675j)</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>(-0.03360848856168668-0.07459188291253875j)</t>
+          <t>(-1.0142326783288413+0.261375387693194j)</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>(-1.0119249955557854+0.25261207336986397j)</t>
+          <t>(-0.9556276937639577-0.35256284856028813j)</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>(-1.012429564966663+0.2546407185088329j)</t>
+          <t>(-0.954474797458147-0.35554198697273987j)</t>
         </is>
       </c>
     </row>
@@ -8885,32 +8885,32 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>(-0.5115427514889063+0.8628939894929157j)</t>
+          <t>(-0.5088686907144881+0.8644919905441363j)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>(-0.5138205957241966+0.8623897793611602j)</t>
+          <t>(-0.47842721552998374+0.8788141795673474j)</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>(-0.5126828031453525+0.8634630789323507j)</t>
+          <t>(-0.47201982089214345+0.8855456558121266j)</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>(-0.06767747200316485-0.035536427860777736j)</t>
+          <t>(-0.7008850226575658+0.7460000877623062j)</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>(-0.7028409203597614+0.7388420068109701j)</t>
+          <t>(-0.9893504340091934+0.24581024152700082j)</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>(-0.7033292176490016+0.7400758959824663j)</t>
+          <t>(-0.9906782806744786+0.24315942611548058j)</t>
         </is>
       </c>
     </row>
@@ -8921,32 +8921,32 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>(-0.023663665938357736+0.9549532636205462j)</t>
+          <t>(-0.020357451429926017+0.9548872470873174j)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>(-0.024989690288164983+0.9548994652211021j)</t>
+          <t>(0.008624692561186956+0.9524227355096755j)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>(-0.02539697583152101+0.9547591029093159j)</t>
+          <t>(0.016484864596244174+0.9528178251187065j)</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>(-0.07893201560671233+0.008190414177117215j)</t>
+          <t>(-0.20391784073365213+0.9654860954939833j)</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>(-0.20801592366775537+0.96077341056945j)</t>
+          <t>(-0.6718474928994763+0.7430767984512076j)</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>(-0.20633428021757816+0.9623305734631984j)</t>
+          <t>(-0.6745814752828974+0.7414344466192258j)</t>
         </is>
       </c>
     </row>
@@ -8957,32 +8957,32 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
-          <t>(0.4044501786974017+0.8221160684691218j)</t>
+          <t>(0.406100433332737+0.8190405982386241j)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>(0.40411211281505144+0.8216363491164018j)</t>
+          <t>(0.4290957747817652+0.8035995550501809j)</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>(0.40451929007042137+0.8216230596978725j)</t>
+          <t>(0.4372488769239687+0.802296258569228j)</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>(-0.06724267835505734+0.05294313434755327j)</t>
+          <t>(0.2943031672298077+0.9045975508218531j)</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>(0.28909583980902703+0.9034460448578605j)</t>
+          <t>(-0.1596847671629777+0.9613817981008211j)</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>(0.29075267378861097+0.904198249075087j)</t>
+          <t>(-0.161609425819794+0.960915965276862j)</t>
         </is>
       </c>
     </row>
